--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_08_Jedi_D6.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_08_Jedi_D6.xlsx
@@ -5222,30 +5222,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{12D4C0FD-DD7F-423E-9D16-853FD11BF61F}" diskRevisions="1" revisionId="129" version="4">
-  <header guid="{565066FF-3387-4FED-BCB8-1D964CB6CA6E}" dateTime="2021-08-06T14:51:38" maxSheetId="5" userName="Jason Wang" r:id="rId1">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{692940B5-BE8D-4D6A-86D0-637A55FA3161}" dateTime="2021-08-06T14:55:47" maxSheetId="5" userName="Jason Wang" r:id="rId2" minRId="1" maxRId="2">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3ACA605E-8DA3-4E12-8CE7-4284C7CC5DD8}" dateTime="2021-08-06T15:32:20" maxSheetId="5" userName="Jason Wang" r:id="rId3" minRId="3" maxRId="127">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
   <header guid="{12D4C0FD-DD7F-423E-9D16-853FD11BF61F}" dateTime="2021-08-06T15:32:25" maxSheetId="5" userName="Jason Wang" r:id="rId4">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5255,1365 +5231,6 @@
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="1" sId="1" ref="A9:XFD9" action="insertRow"/>
-  <rcc rId="2" sId="1">
-    <nc r="A9" t="inlineStr">
-      <is>
-        <t>System</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="3" sId="2" ref="A6:XFD6" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A6:XFD6" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A6">
-        <v>4</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E6" t="inlineStr">
-        <is>
-          <t>00_primitive/00_common/04_CONFIG_LMMIB</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L6" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S6" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE6" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="4" sId="2" ref="A94:XFD94" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A94:XFD94" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A94">
-        <v>93</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E94" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/12_IDDRX2DQ_30_mddrx2</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L94" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S94" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE94" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="5" sId="2" ref="A95:XFD95" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A95:XFD95" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A95">
-        <v>95</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E95" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/14_IDDRX4DQ</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L95" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S95" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE95" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="6" sId="2" ref="A100:XFD100" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A100:XFD100" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A100">
-        <v>101</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E100" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/20_ODDRX2DQS_30_mddrx2_r</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L100" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S100" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE100" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="7" sId="2" ref="A101:XFD101" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A101:XFD101" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A101">
-        <v>103</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E101" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/22_ODDRX4DQ</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L101" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S101" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE101" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="8" sId="2" ref="A101:XFD101" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A101:XFD101" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A101">
-        <v>104</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E101" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/23_ODDRX4DQS</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L101" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S101" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE101" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="9" sId="2" ref="A104:XFD104" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A104:XFD104" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A104">
-        <v>108</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E104" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/27_TSHX2DQ_14_mddrx2</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="H104" t="inlineStr">
-        <is>
-          <t>silicon/04_Jedi/A_items/ARCs/ 05_DDR\DDR_timing\32_mddrx2_dq_dqs_ip</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L104" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="O104" t="inlineStr">
-        <is>
-          <t>cmd=--run-ipgen</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="S104" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE104" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="10" sId="2" ref="A104:XFD104" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A104:XFD104" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A104">
-        <v>109</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E104" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/28_TSHX2DQS_14_mddrx2</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L104" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="O104" t="inlineStr">
-        <is>
-          <t>cmd=--run-ipgen</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="S104" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE104" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="11" sId="2" ref="A104:XFD104" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A104:XFD104" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A104">
-        <v>110</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E104" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/29_TSHX4DQ</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L104" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S104" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE104" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="12" sId="2" ref="A104:XFD104" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A104:XFD104" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A104">
-        <v>111</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E104" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/30_TSHX4DQS</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L104" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S104" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE104" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rcc rId="13" sId="2" numFmtId="30">
-    <oc r="A6">
-      <v>5</v>
-    </oc>
-    <nc r="A6">
-      <v>4</v>
-    </nc>
-  </rcc>
-  <rcc rId="14" sId="2" numFmtId="30">
-    <oc r="A7">
-      <v>6</v>
-    </oc>
-    <nc r="A7">
-      <v>5</v>
-    </nc>
-  </rcc>
-  <rcc rId="15" sId="2" numFmtId="30">
-    <oc r="A8">
-      <v>7</v>
-    </oc>
-    <nc r="A8">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rcc rId="16" sId="2" numFmtId="30">
-    <oc r="A9">
-      <v>8</v>
-    </oc>
-    <nc r="A9">
-      <v>7</v>
-    </nc>
-  </rcc>
-  <rcc rId="17" sId="2" numFmtId="30">
-    <oc r="A10">
-      <v>9</v>
-    </oc>
-    <nc r="A10">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcc rId="18" sId="2" numFmtId="30">
-    <oc r="A11">
-      <v>10</v>
-    </oc>
-    <nc r="A11">
-      <v>9</v>
-    </nc>
-  </rcc>
-  <rcc rId="19" sId="2" numFmtId="30">
-    <oc r="A12">
-      <v>11</v>
-    </oc>
-    <nc r="A12">
-      <v>10</v>
-    </nc>
-  </rcc>
-  <rcc rId="20" sId="2" numFmtId="30">
-    <oc r="A13">
-      <v>12</v>
-    </oc>
-    <nc r="A13">
-      <v>11</v>
-    </nc>
-  </rcc>
-  <rcc rId="21" sId="2" numFmtId="30">
-    <oc r="A14">
-      <v>13</v>
-    </oc>
-    <nc r="A14">
-      <v>12</v>
-    </nc>
-  </rcc>
-  <rcc rId="22" sId="2" numFmtId="30">
-    <oc r="A15">
-      <v>14</v>
-    </oc>
-    <nc r="A15">
-      <v>13</v>
-    </nc>
-  </rcc>
-  <rcc rId="23" sId="2" numFmtId="30">
-    <oc r="A16">
-      <v>15</v>
-    </oc>
-    <nc r="A16">
-      <v>14</v>
-    </nc>
-  </rcc>
-  <rcc rId="24" sId="2" numFmtId="30">
-    <oc r="A17">
-      <v>16</v>
-    </oc>
-    <nc r="A17">
-      <v>15</v>
-    </nc>
-  </rcc>
-  <rcc rId="25" sId="2" numFmtId="30">
-    <oc r="A18">
-      <v>17</v>
-    </oc>
-    <nc r="A18">
-      <v>16</v>
-    </nc>
-  </rcc>
-  <rcc rId="26" sId="2" numFmtId="30">
-    <oc r="A19">
-      <v>18</v>
-    </oc>
-    <nc r="A19">
-      <v>17</v>
-    </nc>
-  </rcc>
-  <rcc rId="27" sId="2" numFmtId="30">
-    <oc r="A20">
-      <v>19</v>
-    </oc>
-    <nc r="A20">
-      <v>18</v>
-    </nc>
-  </rcc>
-  <rcc rId="28" sId="2" numFmtId="30">
-    <oc r="A21">
-      <v>20</v>
-    </oc>
-    <nc r="A21">
-      <v>19</v>
-    </nc>
-  </rcc>
-  <rcc rId="29" sId="2" numFmtId="30">
-    <oc r="A22">
-      <v>21</v>
-    </oc>
-    <nc r="A22">
-      <v>20</v>
-    </nc>
-  </rcc>
-  <rcc rId="30" sId="2" numFmtId="30">
-    <oc r="A23">
-      <v>22</v>
-    </oc>
-    <nc r="A23">
-      <v>21</v>
-    </nc>
-  </rcc>
-  <rcc rId="31" sId="2" numFmtId="30">
-    <oc r="A24">
-      <v>23</v>
-    </oc>
-    <nc r="A24">
-      <v>22</v>
-    </nc>
-  </rcc>
-  <rcc rId="32" sId="2" numFmtId="30">
-    <oc r="A25">
-      <v>24</v>
-    </oc>
-    <nc r="A25">
-      <v>23</v>
-    </nc>
-  </rcc>
-  <rcc rId="33" sId="2" numFmtId="30">
-    <oc r="A26">
-      <v>25</v>
-    </oc>
-    <nc r="A26">
-      <v>24</v>
-    </nc>
-  </rcc>
-  <rcc rId="34" sId="2" numFmtId="30">
-    <oc r="A27">
-      <v>26</v>
-    </oc>
-    <nc r="A27">
-      <v>25</v>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="2" numFmtId="30">
-    <oc r="A28">
-      <v>27</v>
-    </oc>
-    <nc r="A28">
-      <v>26</v>
-    </nc>
-  </rcc>
-  <rcc rId="36" sId="2" numFmtId="30">
-    <oc r="A29">
-      <v>28</v>
-    </oc>
-    <nc r="A29">
-      <v>27</v>
-    </nc>
-  </rcc>
-  <rcc rId="37" sId="2" numFmtId="30">
-    <oc r="A30">
-      <v>29</v>
-    </oc>
-    <nc r="A30">
-      <v>28</v>
-    </nc>
-  </rcc>
-  <rcc rId="38" sId="2" numFmtId="30">
-    <oc r="A31">
-      <v>30</v>
-    </oc>
-    <nc r="A31">
-      <v>29</v>
-    </nc>
-  </rcc>
-  <rcc rId="39" sId="2" numFmtId="30">
-    <oc r="A32">
-      <v>31</v>
-    </oc>
-    <nc r="A32">
-      <v>30</v>
-    </nc>
-  </rcc>
-  <rcc rId="40" sId="2" numFmtId="30">
-    <oc r="A33">
-      <v>32</v>
-    </oc>
-    <nc r="A33">
-      <v>31</v>
-    </nc>
-  </rcc>
-  <rcc rId="41" sId="2" numFmtId="30">
-    <oc r="A34">
-      <v>33</v>
-    </oc>
-    <nc r="A34">
-      <v>32</v>
-    </nc>
-  </rcc>
-  <rcc rId="42" sId="2" numFmtId="30">
-    <oc r="A35">
-      <v>34</v>
-    </oc>
-    <nc r="A35">
-      <v>33</v>
-    </nc>
-  </rcc>
-  <rcc rId="43" sId="2" numFmtId="30">
-    <oc r="A36">
-      <v>35</v>
-    </oc>
-    <nc r="A36">
-      <v>34</v>
-    </nc>
-  </rcc>
-  <rcc rId="44" sId="2" numFmtId="30">
-    <oc r="A37">
-      <v>36</v>
-    </oc>
-    <nc r="A37">
-      <v>35</v>
-    </nc>
-  </rcc>
-  <rcc rId="45" sId="2" numFmtId="30">
-    <oc r="A38">
-      <v>37</v>
-    </oc>
-    <nc r="A38">
-      <v>36</v>
-    </nc>
-  </rcc>
-  <rcc rId="46" sId="2" numFmtId="30">
-    <oc r="A39">
-      <v>38</v>
-    </oc>
-    <nc r="A39">
-      <v>37</v>
-    </nc>
-  </rcc>
-  <rcc rId="47" sId="2" numFmtId="30">
-    <oc r="A40">
-      <v>39</v>
-    </oc>
-    <nc r="A40">
-      <v>38</v>
-    </nc>
-  </rcc>
-  <rcc rId="48" sId="2" numFmtId="30">
-    <oc r="A41">
-      <v>40</v>
-    </oc>
-    <nc r="A41">
-      <v>39</v>
-    </nc>
-  </rcc>
-  <rcc rId="49" sId="2" numFmtId="30">
-    <oc r="A42">
-      <v>41</v>
-    </oc>
-    <nc r="A42">
-      <v>40</v>
-    </nc>
-  </rcc>
-  <rcc rId="50" sId="2" numFmtId="30">
-    <oc r="A43">
-      <v>42</v>
-    </oc>
-    <nc r="A43">
-      <v>41</v>
-    </nc>
-  </rcc>
-  <rcc rId="51" sId="2" numFmtId="30">
-    <oc r="A44">
-      <v>43</v>
-    </oc>
-    <nc r="A44">
-      <v>42</v>
-    </nc>
-  </rcc>
-  <rcc rId="52" sId="2" numFmtId="30">
-    <oc r="A45">
-      <v>44</v>
-    </oc>
-    <nc r="A45">
-      <v>43</v>
-    </nc>
-  </rcc>
-  <rcc rId="53" sId="2" numFmtId="30">
-    <oc r="A46">
-      <v>45</v>
-    </oc>
-    <nc r="A46">
-      <v>44</v>
-    </nc>
-  </rcc>
-  <rcc rId="54" sId="2" numFmtId="30">
-    <oc r="A47">
-      <v>46</v>
-    </oc>
-    <nc r="A47">
-      <v>45</v>
-    </nc>
-  </rcc>
-  <rcc rId="55" sId="2" numFmtId="30">
-    <oc r="A48">
-      <v>47</v>
-    </oc>
-    <nc r="A48">
-      <v>46</v>
-    </nc>
-  </rcc>
-  <rcc rId="56" sId="2" numFmtId="30">
-    <oc r="A49">
-      <v>48</v>
-    </oc>
-    <nc r="A49">
-      <v>47</v>
-    </nc>
-  </rcc>
-  <rcc rId="57" sId="2" numFmtId="30">
-    <oc r="A50">
-      <v>49</v>
-    </oc>
-    <nc r="A50">
-      <v>48</v>
-    </nc>
-  </rcc>
-  <rcc rId="58" sId="2" numFmtId="30">
-    <oc r="A51">
-      <v>50</v>
-    </oc>
-    <nc r="A51">
-      <v>49</v>
-    </nc>
-  </rcc>
-  <rcc rId="59" sId="2" numFmtId="30">
-    <oc r="A52">
-      <v>51</v>
-    </oc>
-    <nc r="A52">
-      <v>50</v>
-    </nc>
-  </rcc>
-  <rcc rId="60" sId="2" numFmtId="30">
-    <oc r="A53">
-      <v>52</v>
-    </oc>
-    <nc r="A53">
-      <v>51</v>
-    </nc>
-  </rcc>
-  <rcc rId="61" sId="2" numFmtId="30">
-    <oc r="A54">
-      <v>53</v>
-    </oc>
-    <nc r="A54">
-      <v>52</v>
-    </nc>
-  </rcc>
-  <rcc rId="62" sId="2" numFmtId="30">
-    <oc r="A55">
-      <v>54</v>
-    </oc>
-    <nc r="A55">
-      <v>53</v>
-    </nc>
-  </rcc>
-  <rcc rId="63" sId="2" numFmtId="30">
-    <oc r="A56">
-      <v>55</v>
-    </oc>
-    <nc r="A56">
-      <v>54</v>
-    </nc>
-  </rcc>
-  <rcc rId="64" sId="2" numFmtId="30">
-    <oc r="A57">
-      <v>56</v>
-    </oc>
-    <nc r="A57">
-      <v>55</v>
-    </nc>
-  </rcc>
-  <rcc rId="65" sId="2" numFmtId="30">
-    <oc r="A58">
-      <v>57</v>
-    </oc>
-    <nc r="A58">
-      <v>56</v>
-    </nc>
-  </rcc>
-  <rcc rId="66" sId="2" numFmtId="30">
-    <oc r="A59">
-      <v>58</v>
-    </oc>
-    <nc r="A59">
-      <v>57</v>
-    </nc>
-  </rcc>
-  <rcc rId="67" sId="2" numFmtId="30">
-    <oc r="A60">
-      <v>59</v>
-    </oc>
-    <nc r="A60">
-      <v>58</v>
-    </nc>
-  </rcc>
-  <rcc rId="68" sId="2" numFmtId="30">
-    <oc r="A61">
-      <v>60</v>
-    </oc>
-    <nc r="A61">
-      <v>59</v>
-    </nc>
-  </rcc>
-  <rcc rId="69" sId="2" numFmtId="30">
-    <oc r="A62">
-      <v>61</v>
-    </oc>
-    <nc r="A62">
-      <v>60</v>
-    </nc>
-  </rcc>
-  <rcc rId="70" sId="2" numFmtId="30">
-    <oc r="A63">
-      <v>62</v>
-    </oc>
-    <nc r="A63">
-      <v>61</v>
-    </nc>
-  </rcc>
-  <rcc rId="71" sId="2" numFmtId="30">
-    <oc r="A64">
-      <v>63</v>
-    </oc>
-    <nc r="A64">
-      <v>62</v>
-    </nc>
-  </rcc>
-  <rcc rId="72" sId="2" numFmtId="30">
-    <oc r="A65">
-      <v>64</v>
-    </oc>
-    <nc r="A65">
-      <v>63</v>
-    </nc>
-  </rcc>
-  <rcc rId="73" sId="2" numFmtId="30">
-    <oc r="A66">
-      <v>65</v>
-    </oc>
-    <nc r="A66">
-      <v>64</v>
-    </nc>
-  </rcc>
-  <rcc rId="74" sId="2" numFmtId="30">
-    <oc r="A67">
-      <v>66</v>
-    </oc>
-    <nc r="A67">
-      <v>65</v>
-    </nc>
-  </rcc>
-  <rcc rId="75" sId="2" numFmtId="30">
-    <oc r="A68">
-      <v>67</v>
-    </oc>
-    <nc r="A68">
-      <v>66</v>
-    </nc>
-  </rcc>
-  <rcc rId="76" sId="2" numFmtId="30">
-    <oc r="A69">
-      <v>68</v>
-    </oc>
-    <nc r="A69">
-      <v>67</v>
-    </nc>
-  </rcc>
-  <rcc rId="77" sId="2" numFmtId="30">
-    <oc r="A70">
-      <v>69</v>
-    </oc>
-    <nc r="A70">
-      <v>68</v>
-    </nc>
-  </rcc>
-  <rcc rId="78" sId="2" numFmtId="30">
-    <oc r="A71">
-      <v>70</v>
-    </oc>
-    <nc r="A71">
-      <v>69</v>
-    </nc>
-  </rcc>
-  <rcc rId="79" sId="2" numFmtId="30">
-    <oc r="A72">
-      <v>71</v>
-    </oc>
-    <nc r="A72">
-      <v>70</v>
-    </nc>
-  </rcc>
-  <rcc rId="80" sId="2" numFmtId="30">
-    <oc r="A73">
-      <v>72</v>
-    </oc>
-    <nc r="A73">
-      <v>71</v>
-    </nc>
-  </rcc>
-  <rcc rId="81" sId="2" numFmtId="30">
-    <oc r="A74">
-      <v>73</v>
-    </oc>
-    <nc r="A74">
-      <v>72</v>
-    </nc>
-  </rcc>
-  <rcc rId="82" sId="2" numFmtId="30">
-    <oc r="A75">
-      <v>74</v>
-    </oc>
-    <nc r="A75">
-      <v>73</v>
-    </nc>
-  </rcc>
-  <rcc rId="83" sId="2" numFmtId="30">
-    <oc r="A76">
-      <v>75</v>
-    </oc>
-    <nc r="A76">
-      <v>74</v>
-    </nc>
-  </rcc>
-  <rcc rId="84" sId="2" numFmtId="30">
-    <oc r="A77">
-      <v>76</v>
-    </oc>
-    <nc r="A77">
-      <v>75</v>
-    </nc>
-  </rcc>
-  <rcc rId="85" sId="2" numFmtId="30">
-    <oc r="A78">
-      <v>77</v>
-    </oc>
-    <nc r="A78">
-      <v>76</v>
-    </nc>
-  </rcc>
-  <rcc rId="86" sId="2" numFmtId="30">
-    <oc r="A79">
-      <v>78</v>
-    </oc>
-    <nc r="A79">
-      <v>77</v>
-    </nc>
-  </rcc>
-  <rcc rId="87" sId="2" numFmtId="30">
-    <oc r="A80">
-      <v>79</v>
-    </oc>
-    <nc r="A80">
-      <v>78</v>
-    </nc>
-  </rcc>
-  <rcc rId="88" sId="2" numFmtId="30">
-    <oc r="A81">
-      <v>80</v>
-    </oc>
-    <nc r="A81">
-      <v>79</v>
-    </nc>
-  </rcc>
-  <rcc rId="89" sId="2" numFmtId="30">
-    <oc r="A82">
-      <v>81</v>
-    </oc>
-    <nc r="A82">
-      <v>80</v>
-    </nc>
-  </rcc>
-  <rcc rId="90" sId="2" numFmtId="30">
-    <oc r="A83">
-      <v>82</v>
-    </oc>
-    <nc r="A83">
-      <v>81</v>
-    </nc>
-  </rcc>
-  <rcc rId="91" sId="2" numFmtId="30">
-    <oc r="A84">
-      <v>83</v>
-    </oc>
-    <nc r="A84">
-      <v>82</v>
-    </nc>
-  </rcc>
-  <rcc rId="92" sId="2" numFmtId="30">
-    <oc r="A85">
-      <v>84</v>
-    </oc>
-    <nc r="A85">
-      <v>83</v>
-    </nc>
-  </rcc>
-  <rcc rId="93" sId="2" numFmtId="30">
-    <oc r="A86">
-      <v>85</v>
-    </oc>
-    <nc r="A86">
-      <v>84</v>
-    </nc>
-  </rcc>
-  <rcc rId="94" sId="2" numFmtId="30">
-    <oc r="A87">
-      <v>86</v>
-    </oc>
-    <nc r="A87">
-      <v>85</v>
-    </nc>
-  </rcc>
-  <rcc rId="95" sId="2" numFmtId="30">
-    <oc r="A88">
-      <v>87</v>
-    </oc>
-    <nc r="A88">
-      <v>86</v>
-    </nc>
-  </rcc>
-  <rcc rId="96" sId="2" numFmtId="30">
-    <oc r="A89">
-      <v>88</v>
-    </oc>
-    <nc r="A89">
-      <v>87</v>
-    </nc>
-  </rcc>
-  <rcc rId="97" sId="2" numFmtId="30">
-    <oc r="A90">
-      <v>89</v>
-    </oc>
-    <nc r="A90">
-      <v>88</v>
-    </nc>
-  </rcc>
-  <rcc rId="98" sId="2" numFmtId="30">
-    <oc r="A91">
-      <v>90</v>
-    </oc>
-    <nc r="A91">
-      <v>89</v>
-    </nc>
-  </rcc>
-  <rcc rId="99" sId="2" numFmtId="30">
-    <oc r="A92">
-      <v>91</v>
-    </oc>
-    <nc r="A92">
-      <v>90</v>
-    </nc>
-  </rcc>
-  <rcc rId="100" sId="2" numFmtId="30">
-    <oc r="A93">
-      <v>92</v>
-    </oc>
-    <nc r="A93">
-      <v>91</v>
-    </nc>
-  </rcc>
-  <rcc rId="101" sId="2" numFmtId="30">
-    <oc r="A94">
-      <v>94</v>
-    </oc>
-    <nc r="A94">
-      <v>92</v>
-    </nc>
-  </rcc>
-  <rcc rId="102" sId="2" numFmtId="30">
-    <oc r="A95">
-      <v>96</v>
-    </oc>
-    <nc r="A95">
-      <v>93</v>
-    </nc>
-  </rcc>
-  <rcc rId="103" sId="2" numFmtId="30">
-    <oc r="A96">
-      <v>97</v>
-    </oc>
-    <nc r="A96">
-      <v>94</v>
-    </nc>
-  </rcc>
-  <rcc rId="104" sId="2" numFmtId="30">
-    <oc r="A97">
-      <v>98</v>
-    </oc>
-    <nc r="A97">
-      <v>95</v>
-    </nc>
-  </rcc>
-  <rcc rId="105" sId="2" numFmtId="30">
-    <oc r="A98">
-      <v>99</v>
-    </oc>
-    <nc r="A98">
-      <v>96</v>
-    </nc>
-  </rcc>
-  <rcc rId="106" sId="2" numFmtId="30">
-    <oc r="A99">
-      <v>100</v>
-    </oc>
-    <nc r="A99">
-      <v>97</v>
-    </nc>
-  </rcc>
-  <rcc rId="107" sId="2" numFmtId="30">
-    <oc r="A100">
-      <v>102</v>
-    </oc>
-    <nc r="A100">
-      <v>98</v>
-    </nc>
-  </rcc>
-  <rcc rId="108" sId="2" numFmtId="30">
-    <oc r="A101">
-      <v>105</v>
-    </oc>
-    <nc r="A101">
-      <v>99</v>
-    </nc>
-  </rcc>
-  <rcc rId="109" sId="2" numFmtId="30">
-    <oc r="A102">
-      <v>106</v>
-    </oc>
-    <nc r="A102">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="110" sId="2" numFmtId="30">
-    <oc r="A103">
-      <v>107</v>
-    </oc>
-    <nc r="A103">
-      <v>101</v>
-    </nc>
-  </rcc>
-  <rcc rId="111" sId="2" numFmtId="30">
-    <oc r="A104">
-      <v>112</v>
-    </oc>
-    <nc r="A104">
-      <v>102</v>
-    </nc>
-  </rcc>
-  <rcc rId="112" sId="2" numFmtId="30">
-    <oc r="A105">
-      <v>113</v>
-    </oc>
-    <nc r="A105">
-      <v>103</v>
-    </nc>
-  </rcc>
-  <rcc rId="113" sId="2" numFmtId="30">
-    <oc r="A106">
-      <v>114</v>
-    </oc>
-    <nc r="A106">
-      <v>104</v>
-    </nc>
-  </rcc>
-  <rcc rId="114" sId="2" numFmtId="30">
-    <oc r="A107">
-      <v>115</v>
-    </oc>
-    <nc r="A107">
-      <v>105</v>
-    </nc>
-  </rcc>
-  <rcc rId="115" sId="2" numFmtId="30">
-    <oc r="A108">
-      <v>116</v>
-    </oc>
-    <nc r="A108">
-      <v>106</v>
-    </nc>
-  </rcc>
-  <rcc rId="116" sId="2" numFmtId="30">
-    <oc r="A109">
-      <v>117</v>
-    </oc>
-    <nc r="A109">
-      <v>107</v>
-    </nc>
-  </rcc>
-  <rcc rId="117" sId="2" numFmtId="30">
-    <oc r="A110">
-      <v>118</v>
-    </oc>
-    <nc r="A110">
-      <v>108</v>
-    </nc>
-  </rcc>
-  <rcc rId="118" sId="2" numFmtId="30">
-    <oc r="A111">
-      <v>119</v>
-    </oc>
-    <nc r="A111">
-      <v>109</v>
-    </nc>
-  </rcc>
-  <rcc rId="119" sId="2" numFmtId="30">
-    <oc r="A112">
-      <v>120</v>
-    </oc>
-    <nc r="A112">
-      <v>110</v>
-    </nc>
-  </rcc>
-  <rcc rId="120" sId="2" numFmtId="30">
-    <oc r="A113">
-      <v>121</v>
-    </oc>
-    <nc r="A113">
-      <v>111</v>
-    </nc>
-  </rcc>
-  <rcc rId="121" sId="2" numFmtId="30">
-    <oc r="A114">
-      <v>122</v>
-    </oc>
-    <nc r="A114">
-      <v>112</v>
-    </nc>
-  </rcc>
-  <rcc rId="122" sId="2" numFmtId="30">
-    <oc r="A115">
-      <v>123</v>
-    </oc>
-    <nc r="A115">
-      <v>113</v>
-    </nc>
-  </rcc>
-  <rcc rId="123" sId="2" numFmtId="30">
-    <oc r="A116">
-      <v>124</v>
-    </oc>
-    <nc r="A116">
-      <v>114</v>
-    </nc>
-  </rcc>
-  <rcc rId="124" sId="2" numFmtId="30">
-    <oc r="A117">
-      <v>125</v>
-    </oc>
-    <nc r="A117">
-      <v>115</v>
-    </nc>
-  </rcc>
-  <rcc rId="125" sId="2" numFmtId="30">
-    <oc r="A118">
-      <v>126</v>
-    </oc>
-    <nc r="A118">
-      <v>116</v>
-    </nc>
-  </rcc>
-  <rcc rId="126" sId="2" numFmtId="30">
-    <oc r="A119">
-      <v>127</v>
-    </oc>
-    <nc r="A119">
-      <v>117</v>
-    </nc>
-  </rcc>
-  <rcc rId="127" sId="2" numFmtId="30">
-    <oc r="A120">
-      <v>128</v>
-    </oc>
-    <nc r="A120">
-      <v>118</v>
-    </nc>
-  </rcc>
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>case!$A$2:$AE$120</formula>
-    <oldFormula>case!$A$2:$AE$120</oldFormula>
-  </rdn>
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
-</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>

--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_08_Jedi_D6.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_08_Jedi_D6.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{954D2335-71FE-4F3C-A53B-B1C4973910AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6300" windowWidth="28830" windowHeight="6240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -19,24 +20,24 @@
     <sheet name="comments" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AE$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AE$118</definedName>
     <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
     <definedName name="Z_1F35143E_328B_4EDC_927C_C18A57070EA0_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
-    <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$120</definedName>
+    <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$118</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jeffrey Ye - Personal View" guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
     <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Jeffrey Ye - Personal View" guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="397">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -1187,16 +1188,10 @@
     <t>00_primitive/06_DDR/19_ODDRX2DQ_30_mddrx2_w</t>
   </si>
   <si>
-    <t>00_primitive/06_DDR/21_ODDRX4_26_gddrx4</t>
-  </si>
-  <si>
     <t>00_primitive/06_DDR/24_ODDRX5_27_gddrx5</t>
   </si>
   <si>
     <t>00_primitive/06_DDR/25_OSHX2_31_mddrx2_oshx2</t>
-  </si>
-  <si>
-    <t>00_primitive/06_DDR/26_OSHX4_31_mddrx4_oshx4</t>
   </si>
   <si>
     <t>cmd=--run-ipgen</t>
@@ -1268,7 +1263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00_ "/>
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -2353,7 +2348,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2361,13 +2356,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="47">
@@ -2427,7 +2422,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2463,24 +2458,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="47" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2508,13 +2494,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="15" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2523,9 +2506,6 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="16" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="18" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2538,13 +2518,13 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="24" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="47" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="21" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2553,9 +2533,6 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="22" xfId="47" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="27" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2568,20 +2545,59 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2589,12 +2605,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2604,13 +2614,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2630,44 +2634,17 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2704,19 +2681,19 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink 2" xfId="49"/>
+    <cellStyle name="Hyperlink 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="41"/>
-    <cellStyle name="Normal 2 2" xfId="47"/>
-    <cellStyle name="Normal 3" xfId="44"/>
-    <cellStyle name="Normal 4" xfId="45"/>
-    <cellStyle name="Normal 5" xfId="46"/>
-    <cellStyle name="Normal 6" xfId="43"/>
-    <cellStyle name="Normal 6 2" xfId="48"/>
-    <cellStyle name="Note 2" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 5" xfId="46" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 6" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 6 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Note 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
@@ -2752,7 +2729,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4919,7 +4902,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4974,7 +4963,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Add Test Case - TestRail - Mozilla Firefox"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Add Test Case - TestRail - Mozilla Firefox">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5019,7 +5014,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5138,7 +5139,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5185,7 +5192,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5221,8 +5234,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{12D4C0FD-DD7F-423E-9D16-853FD11BF61F}" diskRevisions="1" revisionId="129" version="4">
-  <header guid="{12D4C0FD-DD7F-423E-9D16-853FD11BF61F}" dateTime="2021-08-06T15:32:25" maxSheetId="5" userName="Jason Wang" r:id="rId4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{866FE236-007B-4CC5-B2E0-62C91D598960}" diskRevisions="1" revisionId="150" version="5">
+  <header guid="{866FE236-007B-4CC5-B2E0-62C91D598960}" dateTime="2023-10-11T19:27:28" maxSheetId="5" userName="Jason Wang" r:id="rId5" minRId="130" maxRId="150">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -5233,14 +5246,238 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>case!$A$2:$AE$120</formula>
-    <oldFormula>case!$A$2:$AE$120</oldFormula>
-  </rdn>
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
+  <rrc rId="130" sId="2" ref="A100:XFD100" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A100:XFD100" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <protection locked="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" numFmtId="30">
+      <nc r="A100">
+        <v>98</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="E100" t="inlineStr">
+        <is>
+          <t>00_primitive/06_DDR/21_ODDRX4_26_gddrx4</t>
+        </is>
+      </nc>
+    </rcc>
+    <rfmt sheetId="2" sqref="L100" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="0" formatCode="General"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="S100" t="inlineStr">
+        <is>
+          <t>primitive</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="AE100" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rrc rId="131" sId="2" ref="A102:XFD102" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A102:XFD102" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <protection locked="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2" numFmtId="30">
+      <nc r="A102">
+        <v>101</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="E102" t="inlineStr">
+        <is>
+          <t>00_primitive/06_DDR/26_OSHX4_31_mddrx4_oshx4</t>
+        </is>
+      </nc>
+    </rcc>
+    <rfmt sheetId="2" sqref="L102" start="0" length="0">
+      <dxf>
+        <numFmt numFmtId="0" formatCode="General"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="2">
+      <nc r="S102" t="inlineStr">
+        <is>
+          <t>primitive</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="2">
+      <nc r="AE102" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="132" sId="2" numFmtId="30">
+    <oc r="A100">
+      <v>99</v>
+    </oc>
+    <nc r="A100">
+      <v>98</v>
+    </nc>
+  </rcc>
+  <rcc rId="133" sId="2" numFmtId="30">
+    <oc r="A101">
+      <v>100</v>
+    </oc>
+    <nc r="A101">
+      <v>99</v>
+    </nc>
+  </rcc>
+  <rcc rId="134" sId="2" numFmtId="30">
+    <oc r="A102">
+      <v>102</v>
+    </oc>
+    <nc r="A102">
+      <v>100</v>
+    </nc>
+  </rcc>
+  <rcc rId="135" sId="2" numFmtId="30">
+    <oc r="A103">
+      <v>103</v>
+    </oc>
+    <nc r="A103">
+      <v>101</v>
+    </nc>
+  </rcc>
+  <rcc rId="136" sId="2" numFmtId="30">
+    <oc r="A104">
+      <v>104</v>
+    </oc>
+    <nc r="A104">
+      <v>102</v>
+    </nc>
+  </rcc>
+  <rcc rId="137" sId="2" numFmtId="30">
+    <oc r="A105">
+      <v>105</v>
+    </oc>
+    <nc r="A105">
+      <v>103</v>
+    </nc>
+  </rcc>
+  <rcc rId="138" sId="2" numFmtId="30">
+    <oc r="A106">
+      <v>106</v>
+    </oc>
+    <nc r="A106">
+      <v>104</v>
+    </nc>
+  </rcc>
+  <rcc rId="139" sId="2" numFmtId="30">
+    <oc r="A107">
+      <v>107</v>
+    </oc>
+    <nc r="A107">
+      <v>105</v>
+    </nc>
+  </rcc>
+  <rcc rId="140" sId="2" numFmtId="30">
+    <oc r="A108">
+      <v>108</v>
+    </oc>
+    <nc r="A108">
+      <v>106</v>
+    </nc>
+  </rcc>
+  <rcc rId="141" sId="2" numFmtId="30">
+    <oc r="A109">
+      <v>109</v>
+    </oc>
+    <nc r="A109">
+      <v>107</v>
+    </nc>
+  </rcc>
+  <rcc rId="142" sId="2" numFmtId="30">
+    <oc r="A110">
+      <v>110</v>
+    </oc>
+    <nc r="A110">
+      <v>108</v>
+    </nc>
+  </rcc>
+  <rcc rId="143" sId="2" numFmtId="30">
+    <oc r="A111">
+      <v>111</v>
+    </oc>
+    <nc r="A111">
+      <v>109</v>
+    </nc>
+  </rcc>
+  <rcc rId="144" sId="2" numFmtId="30">
+    <oc r="A112">
+      <v>112</v>
+    </oc>
+    <nc r="A112">
+      <v>110</v>
+    </nc>
+  </rcc>
+  <rcc rId="145" sId="2" numFmtId="30">
+    <oc r="A113">
+      <v>113</v>
+    </oc>
+    <nc r="A113">
+      <v>111</v>
+    </nc>
+  </rcc>
+  <rcc rId="146" sId="2" numFmtId="30">
+    <oc r="A114">
+      <v>114</v>
+    </oc>
+    <nc r="A114">
+      <v>112</v>
+    </nc>
+  </rcc>
+  <rcc rId="147" sId="2" numFmtId="30">
+    <oc r="A115">
+      <v>115</v>
+    </oc>
+    <nc r="A115">
+      <v>113</v>
+    </nc>
+  </rcc>
+  <rcc rId="148" sId="2" numFmtId="30">
+    <oc r="A116">
+      <v>116</v>
+    </oc>
+    <nc r="A116">
+      <v>114</v>
+    </nc>
+  </rcc>
+  <rcc rId="149" sId="2" numFmtId="30">
+    <oc r="A117">
+      <v>117</v>
+    </oc>
+    <nc r="A117">
+      <v>115</v>
+    </nc>
+  </rcc>
+  <rcc rId="150" sId="2" numFmtId="30">
+    <oc r="A118">
+      <v>118</v>
+    </oc>
+    <nc r="A118">
+      <v>116</v>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -5249,9 +5486,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5289,9 +5526,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5326,7 +5563,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5361,7 +5598,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5534,11 +5771,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5561,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5569,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5603,7 +5840,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5725,23 +5962,23 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B29" sqref="B29"/>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}">
+      <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="B4" sqref="B4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="B4" sqref="B4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}">
-      <selection activeCell="B10" sqref="B10"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B29" sqref="B29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -5753,15 +5990,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31:A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5794,41 +6031,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="71" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -5936,7 +6173,7 @@
         <v>274</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -5950,7 +6187,7 @@
         <v>274</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -5978,7 +6215,7 @@
         <v>274</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -5992,7 +6229,7 @@
         <v>274</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6006,7 +6243,7 @@
         <v>274</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6020,7 +6257,7 @@
         <v>274</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6034,7 +6271,7 @@
         <v>274</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6048,7 +6285,7 @@
         <v>274</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6062,7 +6299,7 @@
         <v>274</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6076,7 +6313,7 @@
         <v>274</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6090,7 +6327,7 @@
         <v>274</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6104,7 +6341,7 @@
         <v>274</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6118,7 +6355,7 @@
         <v>274</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6132,7 +6369,7 @@
         <v>274</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -6146,7 +6383,7 @@
         <v>274</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -6160,7 +6397,7 @@
         <v>274</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -6174,7 +6411,7 @@
         <v>274</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -6188,7 +6425,7 @@
         <v>274</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -6230,7 +6467,7 @@
         <v>274</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -6314,7 +6551,7 @@
         <v>274</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -6342,7 +6579,7 @@
         <v>274</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -6356,7 +6593,7 @@
         <v>274</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -6373,7 +6610,7 @@
         <v>274</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -6404,7 +6641,7 @@
         <v>274</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -6418,7 +6655,7 @@
         <v>274</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -6432,7 +6669,7 @@
         <v>274</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -6446,7 +6683,7 @@
         <v>274</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -6474,7 +6711,7 @@
         <v>274</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -6488,7 +6725,7 @@
         <v>274</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -6502,7 +6739,7 @@
         <v>274</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -6516,7 +6753,7 @@
         <v>274</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -6530,7 +6767,7 @@
         <v>274</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -6544,7 +6781,7 @@
         <v>274</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -6558,7 +6795,7 @@
         <v>274</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -6572,7 +6809,7 @@
         <v>274</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -6586,7 +6823,7 @@
         <v>274</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -6600,7 +6837,7 @@
         <v>274</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -6614,7 +6851,7 @@
         <v>274</v>
       </c>
       <c r="AE51" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -6628,7 +6865,7 @@
         <v>274</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -6642,7 +6879,7 @@
         <v>274</v>
       </c>
       <c r="AE53" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -6656,7 +6893,7 @@
         <v>274</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -6670,7 +6907,7 @@
         <v>274</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -6684,7 +6921,7 @@
         <v>274</v>
       </c>
       <c r="AE56" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -6698,7 +6935,7 @@
         <v>274</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -6712,7 +6949,7 @@
         <v>274</v>
       </c>
       <c r="AE58" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -6726,7 +6963,7 @@
         <v>274</v>
       </c>
       <c r="AE59" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -6740,7 +6977,7 @@
         <v>274</v>
       </c>
       <c r="AE60" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -6754,7 +6991,7 @@
         <v>274</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -6768,7 +7005,7 @@
         <v>274</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -6782,7 +7019,7 @@
         <v>274</v>
       </c>
       <c r="AE63" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -6796,7 +7033,7 @@
         <v>274</v>
       </c>
       <c r="AE64" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -6810,7 +7047,7 @@
         <v>274</v>
       </c>
       <c r="AE65" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -6824,7 +7061,7 @@
         <v>274</v>
       </c>
       <c r="AE66" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -6838,7 +7075,7 @@
         <v>274</v>
       </c>
       <c r="AE67" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -6852,7 +7089,7 @@
         <v>274</v>
       </c>
       <c r="AE68" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -6866,7 +7103,7 @@
         <v>274</v>
       </c>
       <c r="AE69" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -6880,7 +7117,7 @@
         <v>274</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -6894,7 +7131,7 @@
         <v>274</v>
       </c>
       <c r="AE71" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -6922,7 +7159,7 @@
         <v>274</v>
       </c>
       <c r="AE73" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -6936,7 +7173,7 @@
         <v>274</v>
       </c>
       <c r="AE74" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -6964,7 +7201,7 @@
         <v>274</v>
       </c>
       <c r="AE76" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -6978,7 +7215,7 @@
         <v>274</v>
       </c>
       <c r="AE77" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="1:31">
@@ -6992,7 +7229,7 @@
         <v>274</v>
       </c>
       <c r="AE78" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:31">
@@ -7006,7 +7243,7 @@
         <v>274</v>
       </c>
       <c r="AE79" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="80" spans="1:31">
@@ -7020,7 +7257,7 @@
         <v>274</v>
       </c>
       <c r="AE80" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:31">
@@ -7034,7 +7271,7 @@
         <v>274</v>
       </c>
       <c r="AE81" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:31">
@@ -7048,7 +7285,7 @@
         <v>274</v>
       </c>
       <c r="AE82" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:31">
@@ -7076,7 +7313,7 @@
         <v>274</v>
       </c>
       <c r="AE84" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:31">
@@ -7104,7 +7341,7 @@
         <v>274</v>
       </c>
       <c r="AE86" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:31">
@@ -7118,7 +7355,7 @@
         <v>274</v>
       </c>
       <c r="AE87" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:31">
@@ -7132,7 +7369,7 @@
         <v>274</v>
       </c>
       <c r="AE88" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:31">
@@ -7146,7 +7383,7 @@
         <v>274</v>
       </c>
       <c r="AE89" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:31">
@@ -7160,7 +7397,7 @@
         <v>274</v>
       </c>
       <c r="AE90" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:31">
@@ -7174,7 +7411,7 @@
         <v>274</v>
       </c>
       <c r="AE91" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:31">
@@ -7188,7 +7425,7 @@
         <v>274</v>
       </c>
       <c r="AE92" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:31">
@@ -7202,7 +7439,7 @@
         <v>274</v>
       </c>
       <c r="AE93" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="1:31">
@@ -7216,7 +7453,7 @@
         <v>274</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:31">
@@ -7230,7 +7467,7 @@
         <v>274</v>
       </c>
       <c r="AE95" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:31">
@@ -7244,7 +7481,7 @@
         <v>274</v>
       </c>
       <c r="AE96" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="1:31">
@@ -7258,7 +7495,7 @@
         <v>274</v>
       </c>
       <c r="AE97" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:31">
@@ -7272,7 +7509,7 @@
         <v>274</v>
       </c>
       <c r="AE98" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:31">
@@ -7286,7 +7523,7 @@
         <v>274</v>
       </c>
       <c r="AE99" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="1:31">
@@ -7300,7 +7537,7 @@
         <v>274</v>
       </c>
       <c r="AE100" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="1:31">
@@ -7314,7 +7551,7 @@
         <v>274</v>
       </c>
       <c r="AE101" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="1:31">
@@ -7322,13 +7559,16 @@
         <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="O102" s="2" t="s">
         <v>375</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE102" s="2" t="s">
-        <v>397</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:31">
@@ -7336,13 +7576,13 @@
         <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE103" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="104" spans="1:31">
@@ -7352,14 +7592,11 @@
       <c r="E104" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="O104" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="S104" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE104" s="2" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
     </row>
     <row r="105" spans="1:31">
@@ -7373,7 +7610,7 @@
         <v>274</v>
       </c>
       <c r="AE105" s="2" t="s">
-        <v>397</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:31">
@@ -7387,7 +7624,7 @@
         <v>274</v>
       </c>
       <c r="AE106" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:31">
@@ -7401,7 +7638,7 @@
         <v>274</v>
       </c>
       <c r="AE107" s="2" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
     </row>
     <row r="108" spans="1:31">
@@ -7415,7 +7652,7 @@
         <v>274</v>
       </c>
       <c r="AE108" s="2" t="s">
-        <v>397</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:31">
@@ -7429,7 +7666,7 @@
         <v>274</v>
       </c>
       <c r="AE109" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="1:31">
@@ -7443,7 +7680,7 @@
         <v>274</v>
       </c>
       <c r="AE110" s="2" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="1:31">
@@ -7457,7 +7694,7 @@
         <v>274</v>
       </c>
       <c r="AE111" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:31">
@@ -7471,7 +7708,7 @@
         <v>274</v>
       </c>
       <c r="AE112" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113" spans="1:31">
@@ -7485,7 +7722,7 @@
         <v>274</v>
       </c>
       <c r="AE113" s="2" t="s">
-        <v>397</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:31">
@@ -7499,7 +7736,7 @@
         <v>274</v>
       </c>
       <c r="AE114" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="1:31">
@@ -7513,7 +7750,7 @@
         <v>274</v>
       </c>
       <c r="AE115" s="2" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="1:31">
@@ -7527,7 +7764,7 @@
         <v>274</v>
       </c>
       <c r="AE116" s="2" t="s">
-        <v>397</v>
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="1:31">
@@ -7541,7 +7778,7 @@
         <v>274</v>
       </c>
       <c r="AE117" s="2" t="s">
-        <v>397</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:31">
@@ -7558,65 +7795,37 @@
         <v>276</v>
       </c>
     </row>
-    <row r="119" spans="1:31">
-      <c r="A119" s="2">
-        <v>117</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="S119" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE119" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="120" spans="1:31">
-      <c r="A120" s="2">
-        <v>118</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="S120" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE120" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="VJrTjm1Fm1rXrx+CFdddfFa6Wa7LMcTTh68sKl6uqty9eT48DGkO/K0CbukAMk15LAB9PR7dGqDsJSHMaEW3mg==" saltValue="KMtx8Yq2xyUAn3Yhr3XgDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A2:AE120"/>
+  <autoFilter ref="A2:AE118" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:AE120"/>
+      <autoFilter ref="A2:AE2" xr:uid="{8AE7A52A-EC7C-4326-A64D-F7F5CEF6C469}"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:Y2" xr:uid="{9055CC09-4CA5-453F-8199-B08A98649595}"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:Y2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A2:Y2" xr:uid="{F3F12307-4157-4F1D-8556-DB8F122119A0}"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:Y2"/>
-    </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:AE2"/>
+      <autoFilter ref="A2:AE120" xr:uid="{C759306D-9DC1-4396-98A5-81F28A91501C}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -7625,10 +7834,10 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1 X1:AB1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1 X1:AB1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:W1 G1:H1 C1:E1 A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:W1 G1:H1 C1:E1 A1" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$F$30:$J$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -7637,49 +7846,49 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>description!$F$141:$H$141</xm:f>
           </x14:formula1>
           <xm:sqref>AC1:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>description!$F$142:$H$142</xm:f>
           </x14:formula1>
           <xm:sqref>AD1:AD1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>description!$F$122:$H$122</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>description!$F$121:$K$121</xm:f>
           </x14:formula1>
           <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>description!$F$123:$H$123</xm:f>
           </x14:formula1>
           <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>description!$E$113:$F$113</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>description!$F$117:$H$117</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>description!$F$120:$K$120</xm:f>
           </x14:formula1>
@@ -7692,7 +7901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N243"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -7757,17 +7966,17 @@
       <c r="E111" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F111" s="74" t="s">
+      <c r="F111" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="G111" s="75"/>
-      <c r="H111" s="75"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="75"/>
-      <c r="K111" s="75"/>
-      <c r="L111" s="75"/>
-      <c r="M111" s="75"/>
-      <c r="N111" s="76"/>
+      <c r="G111" s="100"/>
+      <c r="H111" s="100"/>
+      <c r="I111" s="100"/>
+      <c r="J111" s="100"/>
+      <c r="K111" s="100"/>
+      <c r="L111" s="100"/>
+      <c r="M111" s="100"/>
+      <c r="N111" s="101"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
@@ -8657,7 +8866,7 @@
       <c r="A148" s="26">
         <v>1</v>
       </c>
-      <c r="B148" s="77" t="s">
+      <c r="B148" s="84" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -8683,7 +8892,7 @@
       <c r="A149" s="26">
         <v>2</v>
       </c>
-      <c r="B149" s="78"/>
+      <c r="B149" s="85"/>
       <c r="C149" s="28" t="s">
         <v>129</v>
       </c>
@@ -8705,7 +8914,7 @@
       <c r="A150" s="26">
         <v>3</v>
       </c>
-      <c r="B150" s="78"/>
+      <c r="B150" s="85"/>
       <c r="C150" s="28" t="s">
         <v>9</v>
       </c>
@@ -8725,7 +8934,7 @@
       <c r="A151" s="26">
         <v>4</v>
       </c>
-      <c r="B151" s="78"/>
+      <c r="B151" s="85"/>
       <c r="C151" s="28" t="s">
         <v>131</v>
       </c>
@@ -8749,7 +8958,7 @@
       <c r="A152" s="26">
         <v>5</v>
       </c>
-      <c r="B152" s="78"/>
+      <c r="B152" s="85"/>
       <c r="C152" s="27" t="s">
         <v>133</v>
       </c>
@@ -8773,7 +8982,7 @@
       <c r="A153" s="26">
         <v>6</v>
       </c>
-      <c r="B153" s="78"/>
+      <c r="B153" s="85"/>
       <c r="C153" s="27" t="s">
         <v>137</v>
       </c>
@@ -8797,7 +9006,7 @@
       <c r="A154" s="26">
         <v>7</v>
       </c>
-      <c r="B154" s="78"/>
+      <c r="B154" s="85"/>
       <c r="C154" s="28" t="s">
         <v>140</v>
       </c>
@@ -8819,7 +9028,7 @@
       <c r="A155" s="26">
         <v>8</v>
       </c>
-      <c r="B155" s="78"/>
+      <c r="B155" s="85"/>
       <c r="C155" s="27" t="s">
         <v>141</v>
       </c>
@@ -8843,7 +9052,7 @@
       <c r="A156" s="26">
         <v>9</v>
       </c>
-      <c r="B156" s="78"/>
+      <c r="B156" s="85"/>
       <c r="C156" s="27" t="s">
         <v>142</v>
       </c>
@@ -8867,7 +9076,7 @@
       <c r="A157" s="26">
         <v>10</v>
       </c>
-      <c r="B157" s="78"/>
+      <c r="B157" s="85"/>
       <c r="C157" s="28" t="s">
         <v>143</v>
       </c>
@@ -8891,7 +9100,7 @@
       <c r="A158" s="26">
         <v>11</v>
       </c>
-      <c r="B158" s="78"/>
+      <c r="B158" s="85"/>
       <c r="C158" s="28" t="s">
         <v>144</v>
       </c>
@@ -8915,7 +9124,7 @@
       <c r="A159" s="26">
         <v>12</v>
       </c>
-      <c r="B159" s="78"/>
+      <c r="B159" s="85"/>
       <c r="C159" s="28" t="s">
         <v>146</v>
       </c>
@@ -8961,7 +9170,7 @@
       <c r="A161" s="26">
         <v>14</v>
       </c>
-      <c r="B161" s="72" t="s">
+      <c r="B161" s="75" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="28" t="s">
@@ -8987,7 +9196,7 @@
       <c r="A162" s="26">
         <v>15</v>
       </c>
-      <c r="B162" s="73"/>
+      <c r="B162" s="74"/>
       <c r="C162" s="28" t="s">
         <v>154</v>
       </c>
@@ -9011,7 +9220,7 @@
       <c r="A163" s="26">
         <v>16</v>
       </c>
-      <c r="B163" s="77" t="s">
+      <c r="B163" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="28" t="s">
@@ -9035,7 +9244,7 @@
       <c r="A164" s="26">
         <v>17</v>
       </c>
-      <c r="B164" s="80"/>
+      <c r="B164" s="102"/>
       <c r="C164" s="27" t="s">
         <v>158</v>
       </c>
@@ -9077,7 +9286,7 @@
       <c r="A166" s="26">
         <v>19</v>
       </c>
-      <c r="B166" s="72" t="s">
+      <c r="B166" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C166" s="28" t="s">
@@ -9101,7 +9310,7 @@
       <c r="A167" s="26">
         <v>20</v>
       </c>
-      <c r="B167" s="73"/>
+      <c r="B167" s="74"/>
       <c r="C167" s="28" t="s">
         <v>165</v>
       </c>
@@ -9121,7 +9330,7 @@
       <c r="A168" s="26">
         <v>21</v>
       </c>
-      <c r="B168" s="73"/>
+      <c r="B168" s="74"/>
       <c r="C168" s="28" t="s">
         <v>166</v>
       </c>
@@ -9141,7 +9350,7 @@
       <c r="A169" s="26">
         <v>22</v>
       </c>
-      <c r="B169" s="73"/>
+      <c r="B169" s="74"/>
       <c r="C169" s="28" t="s">
         <v>167</v>
       </c>
@@ -9161,7 +9370,7 @@
       <c r="A170" s="26">
         <v>23</v>
       </c>
-      <c r="B170" s="73"/>
+      <c r="B170" s="74"/>
       <c r="C170" s="28" t="s">
         <v>168</v>
       </c>
@@ -9181,7 +9390,7 @@
       <c r="A171" s="26">
         <v>24</v>
       </c>
-      <c r="B171" s="73"/>
+      <c r="B171" s="74"/>
       <c r="C171" s="28" t="s">
         <v>169</v>
       </c>
@@ -9201,7 +9410,7 @@
       <c r="A172" s="26">
         <v>25</v>
       </c>
-      <c r="B172" s="73"/>
+      <c r="B172" s="74"/>
       <c r="C172" s="28" t="s">
         <v>170</v>
       </c>
@@ -9221,7 +9430,7 @@
       <c r="A173" s="26">
         <v>26</v>
       </c>
-      <c r="B173" s="73"/>
+      <c r="B173" s="74"/>
       <c r="C173" s="28" t="s">
         <v>40</v>
       </c>
@@ -9241,7 +9450,7 @@
       <c r="A174" s="26">
         <v>27</v>
       </c>
-      <c r="B174" s="72" t="s">
+      <c r="B174" s="75" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="28" t="s">
@@ -9265,7 +9474,7 @@
       <c r="A175" s="26">
         <v>28</v>
       </c>
-      <c r="B175" s="73"/>
+      <c r="B175" s="74"/>
       <c r="C175" s="27" t="s">
         <v>174</v>
       </c>
@@ -9287,7 +9496,7 @@
       <c r="A176" s="26">
         <v>29</v>
       </c>
-      <c r="B176" s="73"/>
+      <c r="B176" s="74"/>
       <c r="C176" s="28" t="s">
         <v>177</v>
       </c>
@@ -9309,7 +9518,7 @@
       <c r="A177" s="26">
         <v>30</v>
       </c>
-      <c r="B177" s="77" t="s">
+      <c r="B177" s="84" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="28" t="s">
@@ -9335,7 +9544,7 @@
       <c r="A178" s="31">
         <v>31</v>
       </c>
-      <c r="B178" s="78"/>
+      <c r="B178" s="85"/>
       <c r="C178" s="32" t="s">
         <v>182</v>
       </c>
@@ -9359,7 +9568,7 @@
       <c r="A179" s="23">
         <v>32</v>
       </c>
-      <c r="B179" s="81" t="s">
+      <c r="B179" s="86" t="s">
         <v>184</v>
       </c>
       <c r="C179" s="33" t="s">
@@ -9383,7 +9592,7 @@
       <c r="A180" s="26">
         <v>33</v>
       </c>
-      <c r="B180" s="82"/>
+      <c r="B180" s="87"/>
       <c r="C180" s="27" t="s">
         <v>188</v>
       </c>
@@ -9405,7 +9614,7 @@
       <c r="A181" s="26">
         <v>34</v>
       </c>
-      <c r="B181" s="83"/>
+      <c r="B181" s="88"/>
       <c r="C181" s="34" t="s">
         <v>191</v>
       </c>
@@ -9427,7 +9636,7 @@
       <c r="A182" s="31">
         <v>35</v>
       </c>
-      <c r="B182" s="83"/>
+      <c r="B182" s="88"/>
       <c r="C182" s="34" t="s">
         <v>192</v>
       </c>
@@ -9449,17 +9658,17 @@
       <c r="A183" s="31">
         <v>36</v>
       </c>
-      <c r="B183" s="83"/>
+      <c r="B183" s="88"/>
       <c r="C183" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="D183" s="42" t="s">
+      <c r="D183" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E183" s="42" t="s">
+      <c r="E183" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F183" s="42"/>
+      <c r="F183" s="32"/>
       <c r="G183" s="34" t="s">
         <v>253</v>
       </c>
@@ -9469,15 +9678,15 @@
       <c r="A184" s="31">
         <v>37</v>
       </c>
-      <c r="B184" s="83"/>
+      <c r="B184" s="88"/>
       <c r="C184" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="D184" s="42" t="s">
+      <c r="D184" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E184" s="42"/>
-      <c r="F184" s="42" t="s">
+      <c r="E184" s="32"/>
+      <c r="F184" s="32" t="s">
         <v>248</v>
       </c>
       <c r="G184" s="34" t="s">
@@ -9491,7 +9700,7 @@
       <c r="A185" s="35">
         <v>38</v>
       </c>
-      <c r="B185" s="84"/>
+      <c r="B185" s="83"/>
       <c r="C185" s="36" t="s">
         <v>251</v>
       </c>
@@ -9518,7 +9727,7 @@
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="B187" s="37" t="s">
+      <c r="B187" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9539,280 +9748,280 @@
       <c r="A199" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B199" s="38" t="s">
+      <c r="B199" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C199" s="85" t="s">
+      <c r="C199" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="85"/>
-      <c r="E199" s="85"/>
-      <c r="F199" s="39" t="s">
+      <c r="D199" s="89"/>
+      <c r="E199" s="89"/>
+      <c r="F199" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G199" s="40" t="s">
+      <c r="G199" s="38" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="86" t="s">
+      <c r="A200" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="73" t="s">
+      <c r="B200" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="C200" s="88" t="s">
+      <c r="C200" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D200" s="89"/>
-      <c r="E200" s="89"/>
+      <c r="D200" s="92"/>
+      <c r="E200" s="92"/>
       <c r="F200" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G200" s="41" t="s">
+      <c r="G200" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="86"/>
-      <c r="B201" s="87"/>
-      <c r="C201" s="90" t="s">
+      <c r="A201" s="72"/>
+      <c r="B201" s="90"/>
+      <c r="C201" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D201" s="91"/>
-      <c r="E201" s="91"/>
+      <c r="D201" s="94"/>
+      <c r="E201" s="94"/>
       <c r="F201" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="G201" s="43" t="s">
+      <c r="G201" s="40" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="86"/>
-      <c r="B202" s="73" t="s">
+      <c r="A202" s="72"/>
+      <c r="B202" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="C202" s="92" t="s">
+      <c r="C202" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="D202" s="92"/>
-      <c r="E202" s="92"/>
+      <c r="D202" s="95"/>
+      <c r="E202" s="95"/>
       <c r="F202" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G202" s="41" t="s">
+      <c r="G202" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="86"/>
-      <c r="B203" s="73"/>
-      <c r="C203" s="90" t="s">
+      <c r="A203" s="72"/>
+      <c r="B203" s="74"/>
+      <c r="C203" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="D203" s="90"/>
-      <c r="E203" s="90"/>
+      <c r="D203" s="93"/>
+      <c r="E203" s="93"/>
       <c r="F203" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G203" s="41" t="s">
+      <c r="G203" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="86"/>
-      <c r="B204" s="87" t="s">
+      <c r="A204" s="72"/>
+      <c r="B204" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="C204" s="93" t="s">
+      <c r="C204" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D204" s="94"/>
-      <c r="E204" s="95"/>
+      <c r="D204" s="97"/>
+      <c r="E204" s="98"/>
       <c r="F204" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G204" s="41" t="s">
+      <c r="G204" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="86"/>
+      <c r="A205" s="72"/>
       <c r="B205" s="79"/>
-      <c r="C205" s="93" t="s">
+      <c r="C205" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D205" s="94"/>
-      <c r="E205" s="95"/>
+      <c r="D205" s="97"/>
+      <c r="E205" s="98"/>
       <c r="F205" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G205" s="41" t="s">
+      <c r="G205" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="86"/>
-      <c r="B206" s="73" t="s">
+      <c r="A206" s="72"/>
+      <c r="B206" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="C206" s="92" t="s">
+      <c r="C206" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="D206" s="92"/>
-      <c r="E206" s="92"/>
+      <c r="D206" s="95"/>
+      <c r="E206" s="95"/>
       <c r="F206" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G206" s="41" t="s">
+      <c r="G206" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="86"/>
-      <c r="B207" s="73"/>
-      <c r="C207" s="92" t="s">
+      <c r="A207" s="72"/>
+      <c r="B207" s="74"/>
+      <c r="C207" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="D207" s="92"/>
-      <c r="E207" s="92"/>
+      <c r="D207" s="95"/>
+      <c r="E207" s="95"/>
       <c r="F207" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G207" s="41" t="s">
+      <c r="G207" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="86" t="s">
+      <c r="A208" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="73" t="s">
+      <c r="B208" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="C208" s="72" t="s">
+      <c r="C208" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D208" s="73"/>
-      <c r="E208" s="73"/>
+      <c r="D208" s="74"/>
+      <c r="E208" s="74"/>
       <c r="F208" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G208" s="41" t="s">
+      <c r="G208" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="86"/>
-      <c r="B209" s="73"/>
-      <c r="C209" s="73" t="s">
+      <c r="A209" s="72"/>
+      <c r="B209" s="74"/>
+      <c r="C209" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D209" s="73"/>
-      <c r="E209" s="73"/>
+      <c r="D209" s="74"/>
+      <c r="E209" s="74"/>
       <c r="F209" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G209" s="41" t="s">
+      <c r="G209" s="39" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="86"/>
-      <c r="B210" s="73" t="s">
+      <c r="A210" s="72"/>
+      <c r="B210" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="C210" s="73" t="s">
+      <c r="C210" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D210" s="73"/>
-      <c r="E210" s="73"/>
+      <c r="D210" s="74"/>
+      <c r="E210" s="74"/>
       <c r="F210" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G210" s="41" t="s">
+      <c r="G210" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="86"/>
-      <c r="B211" s="73"/>
-      <c r="C211" s="73" t="s">
+      <c r="A211" s="72"/>
+      <c r="B211" s="74"/>
+      <c r="C211" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="D211" s="73"/>
-      <c r="E211" s="73"/>
+      <c r="D211" s="74"/>
+      <c r="E211" s="74"/>
       <c r="F211" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G211" s="41" t="s">
+      <c r="G211" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="86" t="s">
+      <c r="A212" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="B212" s="73" t="s">
+      <c r="B212" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="C212" s="72" t="s">
+      <c r="C212" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D212" s="73"/>
-      <c r="E212" s="73"/>
+      <c r="D212" s="74"/>
+      <c r="E212" s="74"/>
       <c r="F212" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G212" s="41" t="s">
+      <c r="G212" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="86"/>
-      <c r="B213" s="73"/>
-      <c r="C213" s="73" t="s">
+      <c r="A213" s="72"/>
+      <c r="B213" s="74"/>
+      <c r="C213" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D213" s="73"/>
-      <c r="E213" s="73"/>
+      <c r="D213" s="74"/>
+      <c r="E213" s="74"/>
       <c r="F213" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G213" s="41" t="s">
+      <c r="G213" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="86"/>
-      <c r="B214" s="73" t="s">
+      <c r="A214" s="72"/>
+      <c r="B214" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="72" t="s">
+      <c r="C214" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="D214" s="73"/>
-      <c r="E214" s="73"/>
+      <c r="D214" s="74"/>
+      <c r="E214" s="74"/>
       <c r="F214" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G214" s="41" t="s">
+      <c r="G214" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A215" s="97"/>
-      <c r="B215" s="98"/>
-      <c r="C215" s="98" t="s">
+      <c r="A215" s="73"/>
+      <c r="B215" s="76"/>
+      <c r="C215" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="D215" s="98"/>
-      <c r="E215" s="98"/>
+      <c r="D215" s="76"/>
+      <c r="E215" s="76"/>
       <c r="F215" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="G215" s="44" t="s">
+      <c r="G215" s="41" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9820,60 +10029,43 @@
       <c r="A216" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C216" s="37"/>
-      <c r="D216" s="37"/>
-      <c r="E216" s="37"/>
-      <c r="F216" s="37"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="C217" s="37"/>
-      <c r="D217" s="37"/>
-      <c r="E217" s="37"/>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="C218" s="37"/>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
     </row>
     <row r="219" spans="1:7" ht="15.75" thickBot="1">
       <c r="A219" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C219" s="37"/>
-      <c r="D219" s="37"/>
-      <c r="E219" s="37"/>
     </row>
     <row r="220" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A220" s="45" t="s">
+      <c r="A220" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B220" s="99" t="s">
+      <c r="B220" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C220" s="99"/>
-      <c r="D220" s="99"/>
-      <c r="E220" s="99"/>
-      <c r="F220" s="46" t="s">
+      <c r="C220" s="77"/>
+      <c r="D220" s="77"/>
+      <c r="E220" s="77"/>
+      <c r="F220" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="G220" s="47" t="s">
+      <c r="G220" s="44" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="93" customHeight="1">
-      <c r="A221" s="48" t="s">
+      <c r="A221" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B221" s="100" t="s">
+      <c r="B221" s="78" t="s">
         <v>229</v>
       </c>
       <c r="C221" s="79"/>
       <c r="D221" s="79"/>
       <c r="E221" s="79"/>
-      <c r="F221" s="49" t="s">
+      <c r="F221" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="G221" s="50" t="s">
+      <c r="G221" s="47" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9881,12 +10073,12 @@
       <c r="A222" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B222" s="101" t="s">
+      <c r="B222" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="C222" s="102"/>
-      <c r="D222" s="102"/>
-      <c r="E222" s="103"/>
+      <c r="C222" s="81"/>
+      <c r="D222" s="81"/>
+      <c r="E222" s="82"/>
       <c r="F222" s="15" t="s">
         <v>61</v>
       </c>
@@ -9898,12 +10090,12 @@
       <c r="A223" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B223" s="101" t="s">
+      <c r="B223" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="C223" s="102"/>
-      <c r="D223" s="102"/>
-      <c r="E223" s="103"/>
+      <c r="C223" s="81"/>
+      <c r="D223" s="81"/>
+      <c r="E223" s="82"/>
       <c r="F223" s="18" t="s">
         <v>61</v>
       </c>
@@ -9915,12 +10107,12 @@
       <c r="A224" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B224" s="84" t="s">
+      <c r="B224" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="C224" s="98"/>
-      <c r="D224" s="98"/>
-      <c r="E224" s="98"/>
+      <c r="C224" s="76"/>
+      <c r="D224" s="76"/>
+      <c r="E224" s="76"/>
       <c r="F224" s="21" t="s">
         <v>61</v>
       </c>
@@ -9929,7 +10121,7 @@
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="C225" s="51"/>
+      <c r="C225" s="48"/>
     </row>
     <row r="227" spans="1:7" ht="15.75" thickBot="1">
       <c r="A227" s="6" t="s">
@@ -9940,320 +10132,297 @@
       <c r="A228" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B228" s="38" t="s">
+      <c r="B228" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C228" s="52" t="s">
+      <c r="C228" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D228" s="53" t="s">
+      <c r="D228" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E228" s="53"/>
-      <c r="F228" s="54"/>
-      <c r="G228" s="40" t="s">
+      <c r="E228" s="50"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="38" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="55">
+      <c r="A229" s="51">
         <v>42682</v>
       </c>
-      <c r="B229" s="56">
+      <c r="B229" s="52">
         <v>1.04</v>
       </c>
       <c r="C229" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D229" s="96" t="s">
+      <c r="D229" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="E229" s="96"/>
-      <c r="F229" s="96"/>
-      <c r="G229" s="57"/>
+      <c r="E229" s="71"/>
+      <c r="F229" s="71"/>
+      <c r="G229" s="25"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="58">
+      <c r="A230" s="53">
         <v>42692</v>
       </c>
-      <c r="B230" s="59">
+      <c r="B230" s="54">
         <v>1.05</v>
       </c>
       <c r="C230" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D230" s="108" t="s">
+      <c r="D230" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E230" s="108"/>
-      <c r="F230" s="108"/>
-      <c r="G230" s="41"/>
+      <c r="E230" s="70"/>
+      <c r="F230" s="70"/>
+      <c r="G230" s="39"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="58">
+      <c r="A231" s="53">
         <v>42955</v>
       </c>
-      <c r="B231" s="59">
+      <c r="B231" s="54">
         <v>1.06</v>
       </c>
       <c r="C231" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D231" s="108" t="s">
+      <c r="D231" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="E231" s="108"/>
-      <c r="F231" s="108"/>
-      <c r="G231" s="41"/>
+      <c r="E231" s="70"/>
+      <c r="F231" s="70"/>
+      <c r="G231" s="39"/>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="58">
+      <c r="A232" s="53">
         <v>42991</v>
       </c>
-      <c r="B232" s="59">
+      <c r="B232" s="54">
         <v>1.07</v>
       </c>
       <c r="C232" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D232" s="108" t="s">
+      <c r="D232" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="E232" s="108"/>
-      <c r="F232" s="108"/>
-      <c r="G232" s="41"/>
+      <c r="E232" s="70"/>
+      <c r="F232" s="70"/>
+      <c r="G232" s="39"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="58">
+      <c r="A233" s="53">
         <v>43026</v>
       </c>
-      <c r="B233" s="59">
+      <c r="B233" s="54">
         <v>1.08</v>
       </c>
       <c r="C233" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D233" s="108" t="s">
+      <c r="D233" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="E233" s="108"/>
-      <c r="F233" s="108"/>
-      <c r="G233" s="41"/>
+      <c r="E233" s="70"/>
+      <c r="F233" s="70"/>
+      <c r="G233" s="39"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="58">
+      <c r="A234" s="53">
         <v>43069</v>
       </c>
-      <c r="B234" s="59">
+      <c r="B234" s="54">
         <v>1.0900000000000001</v>
       </c>
       <c r="C234" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D234" s="108" t="s">
+      <c r="D234" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="E234" s="108"/>
-      <c r="F234" s="108"/>
-      <c r="G234" s="41"/>
+      <c r="E234" s="70"/>
+      <c r="F234" s="70"/>
+      <c r="G234" s="39"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="60">
+      <c r="A235" s="55">
         <v>43248</v>
       </c>
-      <c r="B235" s="61">
+      <c r="B235" s="56">
         <v>1.1000000000000001</v>
       </c>
       <c r="C235" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D235" s="104" t="s">
+      <c r="D235" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E235" s="105"/>
-      <c r="F235" s="106"/>
-      <c r="G235" s="43"/>
+      <c r="E235" s="67"/>
+      <c r="F235" s="68"/>
+      <c r="G235" s="40"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="60">
+      <c r="A236" s="55">
         <v>43339</v>
       </c>
-      <c r="B236" s="61">
+      <c r="B236" s="56">
         <v>1.1100000000000001</v>
       </c>
       <c r="C236" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D236" s="104" t="s">
+      <c r="D236" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="E236" s="105"/>
-      <c r="F236" s="106"/>
-      <c r="G236" s="43"/>
+      <c r="E236" s="67"/>
+      <c r="F236" s="68"/>
+      <c r="G236" s="40"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="60">
+      <c r="A237" s="55">
         <v>43542</v>
       </c>
-      <c r="B237" s="61">
+      <c r="B237" s="56">
         <v>1.1200000000000001</v>
       </c>
       <c r="C237" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D237" s="104" t="s">
+      <c r="D237" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E237" s="105"/>
-      <c r="F237" s="106"/>
-      <c r="G237" s="43"/>
+      <c r="E237" s="67"/>
+      <c r="F237" s="68"/>
+      <c r="G237" s="40"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="60">
+      <c r="A238" s="55">
         <v>43599</v>
       </c>
-      <c r="B238" s="61">
+      <c r="B238" s="56">
         <v>1.1299999999999999</v>
       </c>
       <c r="C238" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D238" s="62" t="s">
+      <c r="D238" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E238" s="63"/>
-      <c r="F238" s="64"/>
-      <c r="G238" s="43"/>
+      <c r="E238" s="58"/>
+      <c r="F238" s="59"/>
+      <c r="G238" s="40"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="60">
+      <c r="A239" s="55">
         <v>43643</v>
       </c>
-      <c r="B239" s="61">
+      <c r="B239" s="56">
         <v>1.1399999999999999</v>
       </c>
       <c r="C239" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D239" s="62" t="s">
+      <c r="D239" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E239" s="63"/>
-      <c r="F239" s="64"/>
-      <c r="G239" s="43"/>
+      <c r="E239" s="58"/>
+      <c r="F239" s="59"/>
+      <c r="G239" s="40"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="60">
+      <c r="A240" s="55">
         <v>43894</v>
       </c>
-      <c r="B240" s="61">
+      <c r="B240" s="56">
         <v>1.1499999999999999</v>
       </c>
       <c r="C240" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D240" s="62" t="s">
+      <c r="D240" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="E240" s="63"/>
-      <c r="F240" s="64"/>
-      <c r="G240" s="43"/>
+      <c r="E240" s="58"/>
+      <c r="F240" s="59"/>
+      <c r="G240" s="40"/>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="60">
+      <c r="A241" s="55">
         <v>44017</v>
       </c>
-      <c r="B241" s="61">
+      <c r="B241" s="56">
         <v>1.1599999999999999</v>
       </c>
-      <c r="C241" s="42" t="s">
+      <c r="C241" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D241" s="62" t="s">
+      <c r="D241" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="E241" s="63"/>
-      <c r="F241" s="64"/>
-      <c r="G241" s="43"/>
+      <c r="E241" s="58"/>
+      <c r="F241" s="59"/>
+      <c r="G241" s="40"/>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="60">
+      <c r="A242" s="55">
         <v>44118</v>
       </c>
-      <c r="B242" s="61">
+      <c r="B242" s="56">
         <v>1.17</v>
       </c>
-      <c r="C242" s="67" t="s">
+      <c r="C242" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D242" s="62" t="s">
+      <c r="D242" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="E242" s="63"/>
-      <c r="F242" s="64"/>
-      <c r="G242" s="43"/>
+      <c r="E242" s="58"/>
+      <c r="F242" s="59"/>
+      <c r="G242" s="40"/>
     </row>
     <row r="243" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A243" s="65">
+      <c r="A243" s="60">
         <v>44209</v>
       </c>
-      <c r="B243" s="66">
+      <c r="B243" s="61">
         <v>1.18</v>
       </c>
       <c r="C243" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D243" s="107" t="s">
+      <c r="D243" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="E243" s="107"/>
-      <c r="F243" s="107"/>
-      <c r="G243" s="44"/>
+      <c r="E243" s="69"/>
+      <c r="F243" s="69"/>
+      <c r="G243" s="41"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="dSSGbMlehNtWlIHSSfftCqUMab+Sb0hooxQMUpoStERkR2/XS3ERiPNaNXV+uIt5I/NGfmkjhmoCMOi5hOXKdQ==" saltValue="4j3/9e0Khi55FR2zrD17vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="115">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="115">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="D235:F235"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:E214"/>
-    <mergeCell ref="C215:E215"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="B148:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B166:B173"/>
     <mergeCell ref="B177:B178"/>
     <mergeCell ref="B179:B185"/>
     <mergeCell ref="C199:E199"/>
@@ -10270,12 +10439,35 @@
     <mergeCell ref="B206:B207"/>
     <mergeCell ref="C206:E206"/>
     <mergeCell ref="C207:E207"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="B148:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B166:B173"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:E214"/>
+    <mergeCell ref="C215:E215"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="D235:F235"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10284,7 +10476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="D10" workbookViewId="0">
@@ -10294,20 +10486,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" topLeftCell="D10">
-      <selection activeCell="J8" sqref="J8"/>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" topLeftCell="D295">
+      <selection activeCell="A4" sqref="A4:AE331"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="E26" sqref="E26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" topLeftCell="D295">
-      <selection activeCell="A4" sqref="A4:AE331"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" topLeftCell="D10">
+      <selection activeCell="J8" sqref="J8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_08_Jedi_D6.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_08_Jedi_D6.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzhou2\Desktop\00_TMP_Client\new\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{954D2335-71FE-4F3C-A53B-B1C4973910AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{4E745E22-37DC-429F-935C-96B40B4E6712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,16 @@
     <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
     <definedName name="Z_1F35143E_328B_4EDC_927C_C18A57070EA0_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
+    <definedName name="Z_51D8F385_79C8_49EE_A544_710CD9373921_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$118</definedName>
     <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$118</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jerry (Chenghan) Zhou - Personal View" guid="{51D8F385-79C8-49EE-A544-710CD9373921}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="2"/>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Jeffrey Ye - Personal View" guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1" showComments="commIndAndComment"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -987,9 +989,6 @@
     <t>00_primitive/01_clock/11_PCLKDIVSP</t>
   </si>
   <si>
-    <t>00_primitive/01_clock/12_PLL</t>
-  </si>
-  <si>
     <t>cmd = --run-ipgen</t>
   </si>
   <si>
@@ -1258,6 +1257,9 @@
   </si>
   <si>
     <t>radiant=ng3_1</t>
+  </si>
+  <si>
+    <t>00_primitive/01_clock/12_PLLA</t>
   </si>
 </sst>
 </file>
@@ -2545,76 +2547,49 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2634,17 +2609,44 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -5234,8 +5236,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{866FE236-007B-4CC5-B2E0-62C91D598960}" diskRevisions="1" revisionId="150" version="5">
-  <header guid="{866FE236-007B-4CC5-B2E0-62C91D598960}" dateTime="2023-10-11T19:27:28" maxSheetId="5" userName="Jason Wang" r:id="rId5" minRId="130" maxRId="150">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{38A6D581-D4B3-4721-AAD3-F48A68AAF85A}" diskRevisions="1" revisionId="152" version="6">
+  <header guid="{38A6D581-D4B3-4721-AAD3-F48A68AAF85A}" dateTime="2024-05-29T15:33:38" maxSheetId="5" userName="Jerry (Chenghan) Zhou" r:id="rId6" minRId="151">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -5246,238 +5248,24 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="130" sId="2" ref="A100:XFD100" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A100:XFD100" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A100">
-        <v>98</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E100" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/21_ODDRX4_26_gddrx4</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L100" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S100" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE100" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="131" sId="2" ref="A102:XFD102" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A102:XFD102" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A102">
-        <v>101</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E102" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/26_OSHX4_31_mddrx4_oshx4</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L102" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S102" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE102" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rcc rId="132" sId="2" numFmtId="30">
-    <oc r="A100">
-      <v>99</v>
+  <rcc rId="151" sId="2">
+    <oc r="E34" t="inlineStr">
+      <is>
+        <t>00_primitive/01_clock/12_PLL</t>
+      </is>
     </oc>
-    <nc r="A100">
-      <v>98</v>
+    <nc r="E34" t="inlineStr">
+      <is>
+        <t>00_primitive/01_clock/12_PLLA</t>
+      </is>
     </nc>
   </rcc>
-  <rcc rId="133" sId="2" numFmtId="30">
-    <oc r="A101">
-      <v>100</v>
-    </oc>
-    <nc r="A101">
-      <v>99</v>
-    </nc>
-  </rcc>
-  <rcc rId="134" sId="2" numFmtId="30">
-    <oc r="A102">
-      <v>102</v>
-    </oc>
-    <nc r="A102">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="135" sId="2" numFmtId="30">
-    <oc r="A103">
-      <v>103</v>
-    </oc>
-    <nc r="A103">
-      <v>101</v>
-    </nc>
-  </rcc>
-  <rcc rId="136" sId="2" numFmtId="30">
-    <oc r="A104">
-      <v>104</v>
-    </oc>
-    <nc r="A104">
-      <v>102</v>
-    </nc>
-  </rcc>
-  <rcc rId="137" sId="2" numFmtId="30">
-    <oc r="A105">
-      <v>105</v>
-    </oc>
-    <nc r="A105">
-      <v>103</v>
-    </nc>
-  </rcc>
-  <rcc rId="138" sId="2" numFmtId="30">
-    <oc r="A106">
-      <v>106</v>
-    </oc>
-    <nc r="A106">
-      <v>104</v>
-    </nc>
-  </rcc>
-  <rcc rId="139" sId="2" numFmtId="30">
-    <oc r="A107">
-      <v>107</v>
-    </oc>
-    <nc r="A107">
-      <v>105</v>
-    </nc>
-  </rcc>
-  <rcc rId="140" sId="2" numFmtId="30">
-    <oc r="A108">
-      <v>108</v>
-    </oc>
-    <nc r="A108">
-      <v>106</v>
-    </nc>
-  </rcc>
-  <rcc rId="141" sId="2" numFmtId="30">
-    <oc r="A109">
-      <v>109</v>
-    </oc>
-    <nc r="A109">
-      <v>107</v>
-    </nc>
-  </rcc>
-  <rcc rId="142" sId="2" numFmtId="30">
-    <oc r="A110">
-      <v>110</v>
-    </oc>
-    <nc r="A110">
-      <v>108</v>
-    </nc>
-  </rcc>
-  <rcc rId="143" sId="2" numFmtId="30">
-    <oc r="A111">
-      <v>111</v>
-    </oc>
-    <nc r="A111">
-      <v>109</v>
-    </nc>
-  </rcc>
-  <rcc rId="144" sId="2" numFmtId="30">
-    <oc r="A112">
-      <v>112</v>
-    </oc>
-    <nc r="A112">
-      <v>110</v>
-    </nc>
-  </rcc>
-  <rcc rId="145" sId="2" numFmtId="30">
-    <oc r="A113">
-      <v>113</v>
-    </oc>
-    <nc r="A113">
-      <v>111</v>
-    </nc>
-  </rcc>
-  <rcc rId="146" sId="2" numFmtId="30">
-    <oc r="A114">
-      <v>114</v>
-    </oc>
-    <nc r="A114">
-      <v>112</v>
-    </nc>
-  </rcc>
-  <rcc rId="147" sId="2" numFmtId="30">
-    <oc r="A115">
-      <v>115</v>
-    </oc>
-    <nc r="A115">
-      <v>113</v>
-    </nc>
-  </rcc>
-  <rcc rId="148" sId="2" numFmtId="30">
-    <oc r="A116">
-      <v>116</v>
-    </oc>
-    <nc r="A116">
-      <v>114</v>
-    </nc>
-  </rcc>
-  <rcc rId="149" sId="2" numFmtId="30">
-    <oc r="A117">
-      <v>117</v>
-    </oc>
-    <nc r="A117">
-      <v>115</v>
-    </nc>
-  </rcc>
-  <rcc rId="150" sId="2" numFmtId="30">
-    <oc r="A118">
-      <v>118</v>
-    </oc>
-    <nc r="A118">
-      <v>116</v>
-    </nc>
-  </rcc>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_51D8F385_79C8_49EE_A544_710CD9373921_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AE$118</formula>
+  </rdn>
+  <rcv guid="{51D8F385-79C8-49EE-A544-710CD9373921}" action="add"/>
 </revisions>
 </file>
 
@@ -5774,7 +5562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5798,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5806,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5840,7 +5628,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5962,13 +5750,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}">
-      <selection activeCell="B10" sqref="B10"/>
+    <customSheetView guid="{51D8F385-79C8-49EE-A544-710CD9373921}">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="B4" sqref="B4"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B29" sqref="B29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -5977,15 +5765,20 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B29" sqref="B29"/>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}">
+      <selection activeCell="B10" sqref="B10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -5993,12 +5786,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE118"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31:A118"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6173,7 +5966,7 @@
         <v>274</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -6187,7 +5980,7 @@
         <v>274</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -6215,7 +6008,7 @@
         <v>274</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -6229,7 +6022,7 @@
         <v>274</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6243,7 +6036,7 @@
         <v>274</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6257,7 +6050,7 @@
         <v>274</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6271,7 +6064,7 @@
         <v>274</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6285,7 +6078,7 @@
         <v>274</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6299,7 +6092,7 @@
         <v>274</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6313,7 +6106,7 @@
         <v>274</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6327,7 +6120,7 @@
         <v>274</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6341,7 +6134,7 @@
         <v>274</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6355,7 +6148,7 @@
         <v>274</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6369,7 +6162,7 @@
         <v>274</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -6383,7 +6176,7 @@
         <v>274</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -6397,7 +6190,7 @@
         <v>274</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -6411,7 +6204,7 @@
         <v>274</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -6425,7 +6218,7 @@
         <v>274</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -6467,7 +6260,7 @@
         <v>274</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -6551,7 +6344,7 @@
         <v>274</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -6579,7 +6372,7 @@
         <v>274</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -6593,7 +6386,7 @@
         <v>274</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -6601,16 +6394,16 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="S34" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -6618,10 +6411,10 @@
         <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>274</v>
@@ -6635,13 +6428,13 @@
         <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -6649,13 +6442,13 @@
         <v>35</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -6663,13 +6456,13 @@
         <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -6677,13 +6470,13 @@
         <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -6691,7 +6484,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>274</v>
@@ -6705,13 +6498,13 @@
         <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -6719,13 +6512,13 @@
         <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S42" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -6733,13 +6526,13 @@
         <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -6747,13 +6540,13 @@
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -6761,13 +6554,13 @@
         <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -6775,13 +6568,13 @@
         <v>44</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S46" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -6789,13 +6582,13 @@
         <v>45</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S47" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -6803,13 +6596,13 @@
         <v>46</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S48" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -6817,13 +6610,13 @@
         <v>47</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -6831,13 +6624,13 @@
         <v>48</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S50" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -6845,13 +6638,13 @@
         <v>49</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S51" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE51" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -6859,13 +6652,13 @@
         <v>50</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S52" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -6873,13 +6666,13 @@
         <v>51</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE53" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -6887,13 +6680,13 @@
         <v>52</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -6901,13 +6694,13 @@
         <v>53</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -6915,13 +6708,13 @@
         <v>54</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE56" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -6929,13 +6722,13 @@
         <v>55</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -6943,13 +6736,13 @@
         <v>56</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S58" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE58" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -6957,13 +6750,13 @@
         <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S59" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE59" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -6971,13 +6764,13 @@
         <v>58</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE60" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -6985,13 +6778,13 @@
         <v>59</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -6999,13 +6792,13 @@
         <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -7013,13 +6806,13 @@
         <v>61</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE63" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -7027,13 +6820,13 @@
         <v>62</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S64" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE64" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -7041,13 +6834,13 @@
         <v>63</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE65" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -7055,13 +6848,13 @@
         <v>64</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE66" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -7069,13 +6862,13 @@
         <v>65</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S67" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE67" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -7083,13 +6876,13 @@
         <v>66</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S68" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE68" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -7097,13 +6890,13 @@
         <v>67</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S69" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE69" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -7111,13 +6904,13 @@
         <v>68</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S70" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -7125,13 +6918,13 @@
         <v>69</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S71" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE71" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -7139,7 +6932,7 @@
         <v>70</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S72" s="2" t="s">
         <v>274</v>
@@ -7153,13 +6946,13 @@
         <v>71</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S73" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE73" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -7167,13 +6960,13 @@
         <v>72</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE74" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -7181,7 +6974,7 @@
         <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>274</v>
@@ -7195,13 +6988,13 @@
         <v>74</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE76" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -7209,13 +7002,13 @@
         <v>75</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE77" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78" spans="1:31">
@@ -7223,13 +7016,13 @@
         <v>76</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE78" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:31">
@@ -7237,13 +7030,13 @@
         <v>77</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE79" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="1:31">
@@ -7251,13 +7044,13 @@
         <v>78</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE80" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="81" spans="1:31">
@@ -7265,13 +7058,13 @@
         <v>79</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE81" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:31">
@@ -7279,13 +7072,13 @@
         <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE82" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="83" spans="1:31">
@@ -7293,7 +7086,7 @@
         <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>274</v>
@@ -7307,13 +7100,13 @@
         <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE84" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="1:31">
@@ -7321,7 +7114,7 @@
         <v>83</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>274</v>
@@ -7335,13 +7128,13 @@
         <v>84</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE86" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="1:31">
@@ -7349,13 +7142,13 @@
         <v>85</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE87" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:31">
@@ -7363,13 +7156,13 @@
         <v>86</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE88" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89" spans="1:31">
@@ -7377,13 +7170,13 @@
         <v>87</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE89" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="1:31">
@@ -7391,13 +7184,13 @@
         <v>88</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE90" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:31">
@@ -7405,13 +7198,13 @@
         <v>89</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE91" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="1:31">
@@ -7419,13 +7212,13 @@
         <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE92" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="1:31">
@@ -7433,13 +7226,13 @@
         <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE93" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:31">
@@ -7447,13 +7240,13 @@
         <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:31">
@@ -7461,13 +7254,13 @@
         <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE95" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:31">
@@ -7475,13 +7268,13 @@
         <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE96" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="97" spans="1:31">
@@ -7489,13 +7282,13 @@
         <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE97" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:31">
@@ -7503,13 +7296,13 @@
         <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE98" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="99" spans="1:31">
@@ -7517,13 +7310,13 @@
         <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE99" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="1:31">
@@ -7531,13 +7324,13 @@
         <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE100" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:31">
@@ -7545,13 +7338,13 @@
         <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE101" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:31">
@@ -7559,10 +7352,10 @@
         <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>274</v>
@@ -7576,13 +7369,13 @@
         <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE103" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:31">
@@ -7590,13 +7383,13 @@
         <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE104" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:31">
@@ -7604,7 +7397,7 @@
         <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>274</v>
@@ -7618,13 +7411,13 @@
         <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE106" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:31">
@@ -7632,13 +7425,13 @@
         <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE107" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="1:31">
@@ -7646,7 +7439,7 @@
         <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>274</v>
@@ -7660,13 +7453,13 @@
         <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE109" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="1:31">
@@ -7674,13 +7467,13 @@
         <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S110" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE110" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:31">
@@ -7688,13 +7481,13 @@
         <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S111" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE111" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="1:31">
@@ -7702,13 +7495,13 @@
         <v>110</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S112" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE112" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:31">
@@ -7716,7 +7509,7 @@
         <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>274</v>
@@ -7730,13 +7523,13 @@
         <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S114" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE114" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="1:31">
@@ -7744,13 +7537,13 @@
         <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S115" s="2" t="s">
         <v>274</v>
       </c>
       <c r="AE115" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116" spans="1:31">
@@ -7758,7 +7551,7 @@
         <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S116" s="2" t="s">
         <v>274</v>
@@ -7772,7 +7565,7 @@
         <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S117" s="2" t="s">
         <v>274</v>
@@ -7786,7 +7579,7 @@
         <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S118" s="2" t="s">
         <v>274</v>
@@ -7799,33 +7592,40 @@
   <sheetProtection algorithmName="SHA-512" hashValue="VJrTjm1Fm1rXrx+CFdddfFa6Wa7LMcTTh68sKl6uqty9eT48DGkO/K0CbukAMk15LAB9PR7dGqDsJSHMaEW3mg==" saltValue="KMtx8Yq2xyUAn3Yhr3XgDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AE118" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{51D8F385-79C8-49EE-A544-710CD9373921}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:AE2" xr:uid="{8AE7A52A-EC7C-4326-A64D-F7F5CEF6C469}"/>
+      <autoFilter ref="A2:AE118" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:Y2" xr:uid="{9055CC09-4CA5-453F-8199-B08A98649595}"/>
+      <autoFilter ref="A2:AE120" xr:uid="{426B4BDA-3805-4BB4-AC29-7E7F033231C5}"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:Y2" xr:uid="{F3F12307-4157-4F1D-8556-DB8F122119A0}"/>
+      <autoFilter ref="A2:Y2" xr:uid="{A1ECC13C-B7AB-4AF7-81E9-1260C1A3337F}"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:AE120" xr:uid="{C759306D-9DC1-4396-98A5-81F28A91501C}"/>
+      <autoFilter ref="A2:Y2" xr:uid="{2719E750-99D1-4842-9977-BD2B981A391C}"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A2:AE2" xr:uid="{A47ED201-1199-42C7-92A9-D1D042E996A8}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -7842,7 +7642,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
@@ -7966,17 +7766,17 @@
       <c r="E111" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F111" s="99" t="s">
+      <c r="F111" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="G111" s="100"/>
-      <c r="H111" s="100"/>
-      <c r="I111" s="100"/>
-      <c r="J111" s="100"/>
-      <c r="K111" s="100"/>
-      <c r="L111" s="100"/>
-      <c r="M111" s="100"/>
-      <c r="N111" s="101"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="69"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="69"/>
+      <c r="M111" s="69"/>
+      <c r="N111" s="70"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
@@ -8866,7 +8666,7 @@
       <c r="A148" s="26">
         <v>1</v>
       </c>
-      <c r="B148" s="84" t="s">
+      <c r="B148" s="71" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -8892,7 +8692,7 @@
       <c r="A149" s="26">
         <v>2</v>
       </c>
-      <c r="B149" s="85"/>
+      <c r="B149" s="72"/>
       <c r="C149" s="28" t="s">
         <v>129</v>
       </c>
@@ -8914,7 +8714,7 @@
       <c r="A150" s="26">
         <v>3</v>
       </c>
-      <c r="B150" s="85"/>
+      <c r="B150" s="72"/>
       <c r="C150" s="28" t="s">
         <v>9</v>
       </c>
@@ -8934,7 +8734,7 @@
       <c r="A151" s="26">
         <v>4</v>
       </c>
-      <c r="B151" s="85"/>
+      <c r="B151" s="72"/>
       <c r="C151" s="28" t="s">
         <v>131</v>
       </c>
@@ -8958,7 +8758,7 @@
       <c r="A152" s="26">
         <v>5</v>
       </c>
-      <c r="B152" s="85"/>
+      <c r="B152" s="72"/>
       <c r="C152" s="27" t="s">
         <v>133</v>
       </c>
@@ -8982,7 +8782,7 @@
       <c r="A153" s="26">
         <v>6</v>
       </c>
-      <c r="B153" s="85"/>
+      <c r="B153" s="72"/>
       <c r="C153" s="27" t="s">
         <v>137</v>
       </c>
@@ -9006,7 +8806,7 @@
       <c r="A154" s="26">
         <v>7</v>
       </c>
-      <c r="B154" s="85"/>
+      <c r="B154" s="72"/>
       <c r="C154" s="28" t="s">
         <v>140</v>
       </c>
@@ -9028,7 +8828,7 @@
       <c r="A155" s="26">
         <v>8</v>
       </c>
-      <c r="B155" s="85"/>
+      <c r="B155" s="72"/>
       <c r="C155" s="27" t="s">
         <v>141</v>
       </c>
@@ -9052,7 +8852,7 @@
       <c r="A156" s="26">
         <v>9</v>
       </c>
-      <c r="B156" s="85"/>
+      <c r="B156" s="72"/>
       <c r="C156" s="27" t="s">
         <v>142</v>
       </c>
@@ -9076,7 +8876,7 @@
       <c r="A157" s="26">
         <v>10</v>
       </c>
-      <c r="B157" s="85"/>
+      <c r="B157" s="72"/>
       <c r="C157" s="28" t="s">
         <v>143</v>
       </c>
@@ -9100,7 +8900,7 @@
       <c r="A158" s="26">
         <v>11</v>
       </c>
-      <c r="B158" s="85"/>
+      <c r="B158" s="72"/>
       <c r="C158" s="28" t="s">
         <v>144</v>
       </c>
@@ -9124,7 +8924,7 @@
       <c r="A159" s="26">
         <v>12</v>
       </c>
-      <c r="B159" s="85"/>
+      <c r="B159" s="72"/>
       <c r="C159" s="28" t="s">
         <v>146</v>
       </c>
@@ -9146,7 +8946,7 @@
       <c r="A160" s="26">
         <v>13</v>
       </c>
-      <c r="B160" s="79"/>
+      <c r="B160" s="73"/>
       <c r="C160" s="28" t="s">
         <v>54</v>
       </c>
@@ -9170,7 +8970,7 @@
       <c r="A161" s="26">
         <v>14</v>
       </c>
-      <c r="B161" s="75" t="s">
+      <c r="B161" s="66" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="28" t="s">
@@ -9196,7 +8996,7 @@
       <c r="A162" s="26">
         <v>15</v>
       </c>
-      <c r="B162" s="74"/>
+      <c r="B162" s="67"/>
       <c r="C162" s="28" t="s">
         <v>154</v>
       </c>
@@ -9220,7 +9020,7 @@
       <c r="A163" s="26">
         <v>16</v>
       </c>
-      <c r="B163" s="84" t="s">
+      <c r="B163" s="71" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="28" t="s">
@@ -9244,7 +9044,7 @@
       <c r="A164" s="26">
         <v>17</v>
       </c>
-      <c r="B164" s="102"/>
+      <c r="B164" s="74"/>
       <c r="C164" s="27" t="s">
         <v>158</v>
       </c>
@@ -9266,7 +9066,7 @@
       <c r="A165" s="26">
         <v>18</v>
       </c>
-      <c r="B165" s="79"/>
+      <c r="B165" s="73"/>
       <c r="C165" s="27" t="s">
         <v>160</v>
       </c>
@@ -9286,7 +9086,7 @@
       <c r="A166" s="26">
         <v>19</v>
       </c>
-      <c r="B166" s="75" t="s">
+      <c r="B166" s="66" t="s">
         <v>6</v>
       </c>
       <c r="C166" s="28" t="s">
@@ -9310,7 +9110,7 @@
       <c r="A167" s="26">
         <v>20</v>
       </c>
-      <c r="B167" s="74"/>
+      <c r="B167" s="67"/>
       <c r="C167" s="28" t="s">
         <v>165</v>
       </c>
@@ -9330,7 +9130,7 @@
       <c r="A168" s="26">
         <v>21</v>
       </c>
-      <c r="B168" s="74"/>
+      <c r="B168" s="67"/>
       <c r="C168" s="28" t="s">
         <v>166</v>
       </c>
@@ -9350,7 +9150,7 @@
       <c r="A169" s="26">
         <v>22</v>
       </c>
-      <c r="B169" s="74"/>
+      <c r="B169" s="67"/>
       <c r="C169" s="28" t="s">
         <v>167</v>
       </c>
@@ -9370,7 +9170,7 @@
       <c r="A170" s="26">
         <v>23</v>
       </c>
-      <c r="B170" s="74"/>
+      <c r="B170" s="67"/>
       <c r="C170" s="28" t="s">
         <v>168</v>
       </c>
@@ -9390,7 +9190,7 @@
       <c r="A171" s="26">
         <v>24</v>
       </c>
-      <c r="B171" s="74"/>
+      <c r="B171" s="67"/>
       <c r="C171" s="28" t="s">
         <v>169</v>
       </c>
@@ -9410,7 +9210,7 @@
       <c r="A172" s="26">
         <v>25</v>
       </c>
-      <c r="B172" s="74"/>
+      <c r="B172" s="67"/>
       <c r="C172" s="28" t="s">
         <v>170</v>
       </c>
@@ -9430,7 +9230,7 @@
       <c r="A173" s="26">
         <v>26</v>
       </c>
-      <c r="B173" s="74"/>
+      <c r="B173" s="67"/>
       <c r="C173" s="28" t="s">
         <v>40</v>
       </c>
@@ -9450,7 +9250,7 @@
       <c r="A174" s="26">
         <v>27</v>
       </c>
-      <c r="B174" s="75" t="s">
+      <c r="B174" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="28" t="s">
@@ -9474,7 +9274,7 @@
       <c r="A175" s="26">
         <v>28</v>
       </c>
-      <c r="B175" s="74"/>
+      <c r="B175" s="67"/>
       <c r="C175" s="27" t="s">
         <v>174</v>
       </c>
@@ -9496,7 +9296,7 @@
       <c r="A176" s="26">
         <v>29</v>
       </c>
-      <c r="B176" s="74"/>
+      <c r="B176" s="67"/>
       <c r="C176" s="28" t="s">
         <v>177</v>
       </c>
@@ -9518,7 +9318,7 @@
       <c r="A177" s="26">
         <v>30</v>
       </c>
-      <c r="B177" s="84" t="s">
+      <c r="B177" s="71" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="28" t="s">
@@ -9544,7 +9344,7 @@
       <c r="A178" s="31">
         <v>31</v>
       </c>
-      <c r="B178" s="85"/>
+      <c r="B178" s="72"/>
       <c r="C178" s="32" t="s">
         <v>182</v>
       </c>
@@ -9568,7 +9368,7 @@
       <c r="A179" s="23">
         <v>32</v>
       </c>
-      <c r="B179" s="86" t="s">
+      <c r="B179" s="75" t="s">
         <v>184</v>
       </c>
       <c r="C179" s="33" t="s">
@@ -9592,7 +9392,7 @@
       <c r="A180" s="26">
         <v>33</v>
       </c>
-      <c r="B180" s="87"/>
+      <c r="B180" s="76"/>
       <c r="C180" s="27" t="s">
         <v>188</v>
       </c>
@@ -9614,7 +9414,7 @@
       <c r="A181" s="26">
         <v>34</v>
       </c>
-      <c r="B181" s="88"/>
+      <c r="B181" s="77"/>
       <c r="C181" s="34" t="s">
         <v>191</v>
       </c>
@@ -9636,7 +9436,7 @@
       <c r="A182" s="31">
         <v>35</v>
       </c>
-      <c r="B182" s="88"/>
+      <c r="B182" s="77"/>
       <c r="C182" s="34" t="s">
         <v>192</v>
       </c>
@@ -9658,7 +9458,7 @@
       <c r="A183" s="31">
         <v>36</v>
       </c>
-      <c r="B183" s="88"/>
+      <c r="B183" s="77"/>
       <c r="C183" s="34" t="s">
         <v>195</v>
       </c>
@@ -9678,7 +9478,7 @@
       <c r="A184" s="31">
         <v>37</v>
       </c>
-      <c r="B184" s="88"/>
+      <c r="B184" s="77"/>
       <c r="C184" s="34" t="s">
         <v>247</v>
       </c>
@@ -9700,7 +9500,7 @@
       <c r="A185" s="35">
         <v>38</v>
       </c>
-      <c r="B185" s="83"/>
+      <c r="B185" s="78"/>
       <c r="C185" s="36" t="s">
         <v>251</v>
       </c>
@@ -9751,11 +9551,11 @@
       <c r="B199" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C199" s="89" t="s">
+      <c r="C199" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="89"/>
-      <c r="E199" s="89"/>
+      <c r="D199" s="79"/>
+      <c r="E199" s="79"/>
       <c r="F199" s="37" t="s">
         <v>41</v>
       </c>
@@ -9764,17 +9564,17 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="72" t="s">
+      <c r="A200" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="74" t="s">
+      <c r="B200" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="C200" s="91" t="s">
+      <c r="C200" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D200" s="92"/>
-      <c r="E200" s="92"/>
+      <c r="D200" s="83"/>
+      <c r="E200" s="83"/>
       <c r="F200" s="28" t="s">
         <v>207</v>
       </c>
@@ -9783,13 +9583,13 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="72"/>
-      <c r="B201" s="90"/>
-      <c r="C201" s="93" t="s">
+      <c r="A201" s="80"/>
+      <c r="B201" s="81"/>
+      <c r="C201" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D201" s="94"/>
-      <c r="E201" s="94"/>
+      <c r="D201" s="85"/>
+      <c r="E201" s="85"/>
       <c r="F201" s="32" t="s">
         <v>208</v>
       </c>
@@ -9798,15 +9598,15 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="72"/>
-      <c r="B202" s="74" t="s">
+      <c r="A202" s="80"/>
+      <c r="B202" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="C202" s="95" t="s">
+      <c r="C202" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="D202" s="95"/>
-      <c r="E202" s="95"/>
+      <c r="D202" s="86"/>
+      <c r="E202" s="86"/>
       <c r="F202" s="28" t="s">
         <v>207</v>
       </c>
@@ -9815,13 +9615,13 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="72"/>
-      <c r="B203" s="74"/>
-      <c r="C203" s="93" t="s">
+      <c r="A203" s="80"/>
+      <c r="B203" s="67"/>
+      <c r="C203" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="D203" s="93"/>
-      <c r="E203" s="93"/>
+      <c r="D203" s="84"/>
+      <c r="E203" s="84"/>
       <c r="F203" s="28" t="s">
         <v>208</v>
       </c>
@@ -9830,15 +9630,15 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="72"/>
-      <c r="B204" s="90" t="s">
+      <c r="A204" s="80"/>
+      <c r="B204" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="C204" s="96" t="s">
+      <c r="C204" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D204" s="97"/>
-      <c r="E204" s="98"/>
+      <c r="D204" s="88"/>
+      <c r="E204" s="89"/>
       <c r="F204" s="28" t="s">
         <v>207</v>
       </c>
@@ -9847,13 +9647,13 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="72"/>
-      <c r="B205" s="79"/>
-      <c r="C205" s="96" t="s">
+      <c r="A205" s="80"/>
+      <c r="B205" s="73"/>
+      <c r="C205" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D205" s="97"/>
-      <c r="E205" s="98"/>
+      <c r="D205" s="88"/>
+      <c r="E205" s="89"/>
       <c r="F205" s="28" t="s">
         <v>208</v>
       </c>
@@ -9862,15 +9662,15 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="72"/>
-      <c r="B206" s="74" t="s">
+      <c r="A206" s="80"/>
+      <c r="B206" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C206" s="95" t="s">
+      <c r="C206" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="D206" s="95"/>
-      <c r="E206" s="95"/>
+      <c r="D206" s="86"/>
+      <c r="E206" s="86"/>
       <c r="F206" s="28" t="s">
         <v>207</v>
       </c>
@@ -9879,13 +9679,13 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="72"/>
-      <c r="B207" s="74"/>
-      <c r="C207" s="95" t="s">
+      <c r="A207" s="80"/>
+      <c r="B207" s="67"/>
+      <c r="C207" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="D207" s="95"/>
-      <c r="E207" s="95"/>
+      <c r="D207" s="86"/>
+      <c r="E207" s="86"/>
       <c r="F207" s="28" t="s">
         <v>208</v>
       </c>
@@ -9894,17 +9694,17 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="72" t="s">
+      <c r="A208" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="74" t="s">
+      <c r="B208" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="C208" s="75" t="s">
+      <c r="C208" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D208" s="74"/>
-      <c r="E208" s="74"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="67"/>
       <c r="F208" s="28" t="s">
         <v>207</v>
       </c>
@@ -9913,13 +9713,13 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="72"/>
-      <c r="B209" s="74"/>
-      <c r="C209" s="74" t="s">
+      <c r="A209" s="80"/>
+      <c r="B209" s="67"/>
+      <c r="C209" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D209" s="74"/>
-      <c r="E209" s="74"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="67"/>
       <c r="F209" s="28" t="s">
         <v>208</v>
       </c>
@@ -9928,15 +9728,15 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="72"/>
-      <c r="B210" s="74" t="s">
+      <c r="A210" s="80"/>
+      <c r="B210" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="C210" s="74" t="s">
+      <c r="C210" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D210" s="74"/>
-      <c r="E210" s="74"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
       <c r="F210" s="28" t="s">
         <v>207</v>
       </c>
@@ -9945,13 +9745,13 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="72"/>
-      <c r="B211" s="74"/>
-      <c r="C211" s="74" t="s">
+      <c r="A211" s="80"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D211" s="74"/>
-      <c r="E211" s="74"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
       <c r="F211" s="28" t="s">
         <v>208</v>
       </c>
@@ -9960,17 +9760,17 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="72" t="s">
+      <c r="A212" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="B212" s="74" t="s">
+      <c r="B212" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="C212" s="75" t="s">
+      <c r="C212" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D212" s="74"/>
-      <c r="E212" s="74"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
       <c r="F212" s="28" t="s">
         <v>207</v>
       </c>
@@ -9979,13 +9779,13 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="72"/>
-      <c r="B213" s="74"/>
-      <c r="C213" s="74" t="s">
+      <c r="A213" s="80"/>
+      <c r="B213" s="67"/>
+      <c r="C213" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D213" s="74"/>
-      <c r="E213" s="74"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
       <c r="F213" s="28" t="s">
         <v>208</v>
       </c>
@@ -9994,15 +9794,15 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="72"/>
-      <c r="B214" s="74" t="s">
+      <c r="A214" s="80"/>
+      <c r="B214" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="75" t="s">
+      <c r="C214" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="D214" s="74"/>
-      <c r="E214" s="74"/>
+      <c r="D214" s="67"/>
+      <c r="E214" s="67"/>
       <c r="F214" s="28" t="s">
         <v>207</v>
       </c>
@@ -10011,13 +9811,13 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A215" s="73"/>
-      <c r="B215" s="76"/>
-      <c r="C215" s="76" t="s">
+      <c r="A215" s="91"/>
+      <c r="B215" s="92"/>
+      <c r="C215" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="D215" s="76"/>
-      <c r="E215" s="76"/>
+      <c r="D215" s="92"/>
+      <c r="E215" s="92"/>
       <c r="F215" s="36" t="s">
         <v>208</v>
       </c>
@@ -10039,12 +9839,12 @@
       <c r="A220" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B220" s="77" t="s">
+      <c r="B220" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C220" s="77"/>
-      <c r="D220" s="77"/>
-      <c r="E220" s="77"/>
+      <c r="C220" s="93"/>
+      <c r="D220" s="93"/>
+      <c r="E220" s="93"/>
       <c r="F220" s="43" t="s">
         <v>226</v>
       </c>
@@ -10056,12 +9856,12 @@
       <c r="A221" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B221" s="78" t="s">
+      <c r="B221" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="C221" s="79"/>
-      <c r="D221" s="79"/>
-      <c r="E221" s="79"/>
+      <c r="C221" s="73"/>
+      <c r="D221" s="73"/>
+      <c r="E221" s="73"/>
       <c r="F221" s="46" t="s">
         <v>104</v>
       </c>
@@ -10073,12 +9873,12 @@
       <c r="A222" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B222" s="80" t="s">
+      <c r="B222" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="C222" s="81"/>
-      <c r="D222" s="81"/>
-      <c r="E222" s="82"/>
+      <c r="C222" s="96"/>
+      <c r="D222" s="96"/>
+      <c r="E222" s="97"/>
       <c r="F222" s="15" t="s">
         <v>61</v>
       </c>
@@ -10090,12 +9890,12 @@
       <c r="A223" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B223" s="80" t="s">
+      <c r="B223" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="C223" s="81"/>
-      <c r="D223" s="81"/>
-      <c r="E223" s="82"/>
+      <c r="C223" s="96"/>
+      <c r="D223" s="96"/>
+      <c r="E223" s="97"/>
       <c r="F223" s="18" t="s">
         <v>61</v>
       </c>
@@ -10107,12 +9907,12 @@
       <c r="A224" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B224" s="83" t="s">
+      <c r="B224" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="C224" s="76"/>
-      <c r="D224" s="76"/>
-      <c r="E224" s="76"/>
+      <c r="C224" s="92"/>
+      <c r="D224" s="92"/>
+      <c r="E224" s="92"/>
       <c r="F224" s="21" t="s">
         <v>61</v>
       </c>
@@ -10157,11 +9957,11 @@
       <c r="C229" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D229" s="71" t="s">
+      <c r="D229" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="E229" s="71"/>
-      <c r="F229" s="71"/>
+      <c r="E229" s="90"/>
+      <c r="F229" s="90"/>
       <c r="G229" s="25"/>
     </row>
     <row r="230" spans="1:7">
@@ -10174,11 +9974,11 @@
       <c r="C230" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D230" s="70" t="s">
+      <c r="D230" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="E230" s="70"/>
-      <c r="F230" s="70"/>
+      <c r="E230" s="102"/>
+      <c r="F230" s="102"/>
       <c r="G230" s="39"/>
     </row>
     <row r="231" spans="1:7">
@@ -10191,11 +9991,11 @@
       <c r="C231" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D231" s="70" t="s">
+      <c r="D231" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="E231" s="70"/>
-      <c r="F231" s="70"/>
+      <c r="E231" s="102"/>
+      <c r="F231" s="102"/>
       <c r="G231" s="39"/>
     </row>
     <row r="232" spans="1:7">
@@ -10208,11 +10008,11 @@
       <c r="C232" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D232" s="70" t="s">
+      <c r="D232" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="E232" s="70"/>
-      <c r="F232" s="70"/>
+      <c r="E232" s="102"/>
+      <c r="F232" s="102"/>
       <c r="G232" s="39"/>
     </row>
     <row r="233" spans="1:7">
@@ -10225,11 +10025,11 @@
       <c r="C233" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D233" s="70" t="s">
+      <c r="D233" s="102" t="s">
         <v>240</v>
       </c>
-      <c r="E233" s="70"/>
-      <c r="F233" s="70"/>
+      <c r="E233" s="102"/>
+      <c r="F233" s="102"/>
       <c r="G233" s="39"/>
     </row>
     <row r="234" spans="1:7">
@@ -10242,11 +10042,11 @@
       <c r="C234" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D234" s="70" t="s">
+      <c r="D234" s="102" t="s">
         <v>241</v>
       </c>
-      <c r="E234" s="70"/>
-      <c r="F234" s="70"/>
+      <c r="E234" s="102"/>
+      <c r="F234" s="102"/>
       <c r="G234" s="39"/>
     </row>
     <row r="235" spans="1:7">
@@ -10259,11 +10059,11 @@
       <c r="C235" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D235" s="66" t="s">
+      <c r="D235" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="E235" s="67"/>
-      <c r="F235" s="68"/>
+      <c r="E235" s="99"/>
+      <c r="F235" s="100"/>
       <c r="G235" s="40"/>
     </row>
     <row r="236" spans="1:7">
@@ -10276,11 +10076,11 @@
       <c r="C236" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D236" s="66" t="s">
+      <c r="D236" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="E236" s="67"/>
-      <c r="F236" s="68"/>
+      <c r="E236" s="99"/>
+      <c r="F236" s="100"/>
       <c r="G236" s="40"/>
     </row>
     <row r="237" spans="1:7">
@@ -10293,11 +10093,11 @@
       <c r="C237" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D237" s="66" t="s">
+      <c r="D237" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="E237" s="67"/>
-      <c r="F237" s="68"/>
+      <c r="E237" s="99"/>
+      <c r="F237" s="100"/>
       <c r="G237" s="40"/>
     </row>
     <row r="238" spans="1:7">
@@ -10395,17 +10195,17 @@
       <c r="C243" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D243" s="69" t="s">
+      <c r="D243" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="E243" s="69"/>
-      <c r="F243" s="69"/>
+      <c r="E243" s="101"/>
+      <c r="F243" s="101"/>
       <c r="G243" s="41"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="dSSGbMlehNtWlIHSSfftCqUMab+Sb0hooxQMUpoStERkR2/XS3ERiPNaNXV+uIt5I/NGfmkjhmoCMOi5hOXKdQ==" saltValue="4j3/9e0Khi55FR2zrD17vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="115">
+    <customSheetView guid="{51D8F385-79C8-49EE-A544-710CD9373921}" scale="115">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
@@ -10415,14 +10215,42 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="115">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="B148:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B166:B173"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:E214"/>
+    <mergeCell ref="C215:E215"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
     <mergeCell ref="B177:B178"/>
     <mergeCell ref="B179:B185"/>
     <mergeCell ref="C199:E199"/>
@@ -10439,35 +10267,12 @@
     <mergeCell ref="B206:B207"/>
     <mergeCell ref="C206:E206"/>
     <mergeCell ref="C207:E207"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:E214"/>
-    <mergeCell ref="C215:E215"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="B148:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B166:B173"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10486,20 +10291,24 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" topLeftCell="D295">
-      <selection activeCell="A4" sqref="A4:AE331"/>
+    <customSheetView guid="{51D8F385-79C8-49EE-A544-710CD9373921}" topLeftCell="D10">
+      <selection activeCell="J8" sqref="J8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" topLeftCell="D10">
+      <selection activeCell="J8" sqref="J8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" topLeftCell="D10">
-      <selection activeCell="J8" sqref="J8"/>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" topLeftCell="D295">
+      <selection activeCell="A4" sqref="A4:AE331"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
